--- a/Регион/Критерии-оценки.xlsx
+++ b/Регион/Критерии-оценки.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcsyan\Desktop\N\учеба\3 курс\Чемпионат\Регион\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mobile\HelpMe\Регион\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32F41FC-4ED8-48B9-B2DA-EB59B308BEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4CDCF-BD48-44E5-8F9F-AEC51E1EEE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Критерии оценки" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,7 @@
     <sheet name="5 сессия" sheetId="11" r:id="rId7"/>
     <sheet name="6 сессия" sheetId="13" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1224,7 +1213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1673,6 +1662,7 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1909,19 +1899,19 @@
       <selection activeCell="I264" sqref="A5:I264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="2.375" customWidth="1"/>
-    <col min="4" max="4" width="49.25" style="60" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" customWidth="1"/>
+    <col min="4" max="4" width="49.19921875" style="60" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="112.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="112.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="8.5" customWidth="1"/>
-    <col min="16" max="16" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.8984375" bestFit="1" customWidth="1"/>
     <col min="17" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1971,7 +1961,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="63">
+    <row r="5" spans="1:26" ht="62.4">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2015,7 +2005,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75">
+    <row r="6" spans="1:26" ht="15.6">
       <c r="A6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -2023,7 +2013,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="18.75">
+    <row r="7" spans="1:26" ht="18">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -2057,7 +2047,7 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75">
+    <row r="8" spans="1:26" ht="15.6">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -2072,7 +2062,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:26" ht="31.5">
+    <row r="9" spans="1:26" ht="31.2">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16" t="s">
@@ -2095,7 +2085,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75">
+    <row r="10" spans="1:26" ht="15.6">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="16" t="s">
@@ -2114,7 +2104,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75">
+    <row r="11" spans="1:26" ht="15.6">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="16" t="s">
@@ -2133,7 +2123,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75">
+    <row r="12" spans="1:26" ht="15.6">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="16" t="s">
@@ -2152,7 +2142,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75">
+    <row r="13" spans="1:26" ht="15.6">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="16" t="s">
@@ -2171,7 +2161,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75">
+    <row r="14" spans="1:26" ht="15.6">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="16" t="s">
@@ -2190,7 +2180,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75">
+    <row r="15" spans="1:26" ht="15.6">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="16" t="s">
@@ -2209,7 +2199,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="31.5">
+    <row r="16" spans="1:26" ht="31.2">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="16" t="s">
@@ -2228,7 +2218,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="13">
         <v>2</v>
       </c>
@@ -2243,7 +2233,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="31.5">
+    <row r="18" spans="1:9" ht="31.2">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="16" t="s">
@@ -2266,7 +2256,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="16" t="s">
@@ -2285,7 +2275,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="16" t="s">
@@ -2304,7 +2294,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="16" t="s">
@@ -2323,7 +2313,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="16" t="s">
@@ -2342,7 +2332,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="16" t="s">
@@ -2361,7 +2351,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5">
+    <row r="24" spans="1:9" ht="31.2">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="16" t="s">
@@ -2380,7 +2370,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15.6">
       <c r="A25" s="13">
         <v>3</v>
       </c>
@@ -2395,7 +2385,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" ht="31.5">
+    <row r="26" spans="1:9" ht="31.2">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="16" t="s">
@@ -2418,7 +2408,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="16" t="s">
@@ -2437,7 +2427,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="16" t="s">
@@ -2456,7 +2446,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="16" t="s">
@@ -2475,7 +2465,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="16" t="s">
@@ -2494,7 +2484,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="16" t="s">
@@ -2513,7 +2503,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="31.5">
+    <row r="32" spans="1:9" ht="31.2">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="16" t="s">
@@ -2532,7 +2522,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75">
+    <row r="33" spans="1:26" ht="15.6">
       <c r="A33" s="13">
         <v>4</v>
       </c>
@@ -2547,7 +2537,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:26" ht="31.5">
+    <row r="34" spans="1:26" ht="31.2">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="16" t="s">
@@ -2570,7 +2560,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15.75">
+    <row r="35" spans="1:26" ht="15.6">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="16" t="s">
@@ -2589,7 +2579,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="18.75">
+    <row r="36" spans="1:26" ht="18">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="16" t="s">
@@ -2620,7 +2610,7 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75">
+    <row r="37" spans="1:26" ht="15.6">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="16" t="s">
@@ -2639,7 +2629,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15.75">
+    <row r="38" spans="1:26" ht="15.6">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="16" t="s">
@@ -2658,7 +2648,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15.75">
+    <row r="39" spans="1:26" ht="15.6">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="16" t="s">
@@ -2677,7 +2667,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="31.5">
+    <row r="40" spans="1:26" ht="31.2">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="16" t="s">
@@ -2696,7 +2686,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15.75">
+    <row r="41" spans="1:26" ht="15.6">
       <c r="A41" s="13">
         <v>5</v>
       </c>
@@ -2711,7 +2701,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="19"/>
     </row>
-    <row r="42" spans="1:26" ht="31.5">
+    <row r="42" spans="1:26" ht="31.2">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="16" t="s">
@@ -2734,7 +2724,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75">
+    <row r="43" spans="1:26" ht="15.6">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="16" t="s">
@@ -2753,7 +2743,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15.75">
+    <row r="44" spans="1:26" ht="15.6">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="16" t="s">
@@ -2772,7 +2762,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15.75">
+    <row r="45" spans="1:26" ht="15.6">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="16" t="s">
@@ -2791,7 +2781,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15.75">
+    <row r="46" spans="1:26" ht="15.6">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="16" t="s">
@@ -2810,7 +2800,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15.75">
+    <row r="47" spans="1:26" ht="15.6">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="16" t="s">
@@ -2829,7 +2819,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="31.5">
+    <row r="48" spans="1:26" ht="31.2">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="16" t="s">
@@ -2848,7 +2838,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="18.75">
+    <row r="49" spans="1:26" ht="18">
       <c r="A49" s="20" t="s">
         <v>29</v>
       </c>
@@ -2865,7 +2855,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15.75">
+    <row r="50" spans="1:26" ht="15.6">
       <c r="A50" s="13">
         <v>1</v>
       </c>
@@ -2880,7 +2870,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75">
+    <row r="51" spans="1:26" ht="15.6">
       <c r="A51" s="13"/>
       <c r="B51" s="24"/>
       <c r="C51" s="16" t="s">
@@ -2901,7 +2891,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15.75">
+    <row r="52" spans="1:26" ht="15.6">
       <c r="A52" s="13"/>
       <c r="B52" s="24"/>
       <c r="C52" s="16" t="s">
@@ -2924,7 +2914,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="31.5">
+    <row r="53" spans="1:26" ht="31.2">
       <c r="A53" s="13"/>
       <c r="B53" s="24"/>
       <c r="C53" s="16" t="s">
@@ -2945,7 +2935,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="31.5">
+    <row r="54" spans="1:26" ht="31.2">
       <c r="A54" s="13"/>
       <c r="B54" s="24"/>
       <c r="C54" s="16" t="s">
@@ -2966,7 +2956,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="31.5">
+    <row r="55" spans="1:26" ht="31.2">
       <c r="A55" s="13"/>
       <c r="B55" s="24"/>
       <c r="C55" s="16" t="s">
@@ -2987,7 +2977,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="47.25">
+    <row r="56" spans="1:26" ht="46.8">
       <c r="A56" s="13"/>
       <c r="B56" s="24"/>
       <c r="C56" s="16" t="s">
@@ -3006,7 +2996,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="31.5">
+    <row r="57" spans="1:26" ht="31.2">
       <c r="A57" s="13"/>
       <c r="B57" s="24"/>
       <c r="C57" s="16" t="s">
@@ -3025,7 +3015,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="31.5">
+    <row r="58" spans="1:26" ht="31.2">
       <c r="A58" s="13"/>
       <c r="B58" s="24"/>
       <c r="C58" s="16" t="s">
@@ -3044,7 +3034,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="31.5">
+    <row r="59" spans="1:26" ht="31.2">
       <c r="A59" s="13"/>
       <c r="B59" s="24"/>
       <c r="C59" s="16" t="s">
@@ -3063,7 +3053,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="65" customFormat="1" ht="15.75">
+    <row r="60" spans="1:26" s="65" customFormat="1" ht="15.6">
       <c r="A60" s="61"/>
       <c r="B60" s="62"/>
       <c r="C60" s="63" t="s">
@@ -3082,7 +3072,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="18.75">
+    <row r="61" spans="1:26" ht="18">
       <c r="A61" s="13">
         <v>2</v>
       </c>
@@ -3109,7 +3099,7 @@
       <c r="Y61" s="12"/>
       <c r="Z61" s="12"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75">
+    <row r="62" spans="1:26" ht="15.6">
       <c r="A62" s="13"/>
       <c r="B62" s="24"/>
       <c r="C62" s="16" t="s">
@@ -3132,7 +3122,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="94.5">
+    <row r="63" spans="1:26" ht="93.6">
       <c r="A63" s="13"/>
       <c r="B63" s="24"/>
       <c r="C63" s="16" t="s">
@@ -3151,7 +3141,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="31.5">
+    <row r="64" spans="1:26" ht="31.2">
       <c r="A64" s="27"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16" t="s">
@@ -3170,7 +3160,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="31.5">
+    <row r="65" spans="1:26" ht="31.2">
       <c r="A65" s="27"/>
       <c r="B65" s="15"/>
       <c r="C65" s="16" t="s">
@@ -3189,7 +3179,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="47.25">
+    <row r="66" spans="1:26" ht="46.8">
       <c r="A66" s="13"/>
       <c r="B66" s="24"/>
       <c r="C66" s="16" t="s">
@@ -3208,7 +3198,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="31.5">
+    <row r="67" spans="1:26" ht="31.2">
       <c r="A67" s="13"/>
       <c r="B67" s="24"/>
       <c r="C67" s="16" t="s">
@@ -3227,7 +3217,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="47.25">
+    <row r="68" spans="1:26" ht="46.8">
       <c r="A68" s="13"/>
       <c r="B68" s="24"/>
       <c r="C68" s="16" t="s">
@@ -3246,7 +3236,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="31.5">
+    <row r="69" spans="1:26" ht="31.2">
       <c r="A69" s="13"/>
       <c r="B69" s="24"/>
       <c r="C69" s="16" t="s">
@@ -3265,7 +3255,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="15.75">
+    <row r="70" spans="1:26" ht="15.6">
       <c r="A70" s="13"/>
       <c r="B70" s="24"/>
       <c r="C70" s="16" t="s">
@@ -3288,7 +3278,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="31.5">
+    <row r="71" spans="1:26" ht="31.2">
       <c r="A71" s="27"/>
       <c r="B71" s="15"/>
       <c r="C71" s="16" t="s">
@@ -3307,7 +3297,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="31.5">
+    <row r="72" spans="1:26" ht="31.2">
       <c r="A72" s="13"/>
       <c r="B72" s="24"/>
       <c r="C72" s="16" t="s">
@@ -3326,7 +3316,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="31.5">
+    <row r="73" spans="1:26" ht="31.2">
       <c r="A73" s="13"/>
       <c r="B73" s="24"/>
       <c r="C73" s="16" t="s">
@@ -3345,7 +3335,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="31.5">
+    <row r="74" spans="1:26" ht="31.2">
       <c r="A74" s="13"/>
       <c r="B74" s="24"/>
       <c r="C74" s="16" t="s">
@@ -3364,7 +3354,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="15.75">
+    <row r="75" spans="1:26" ht="15.6">
       <c r="A75" s="13"/>
       <c r="B75" s="24"/>
       <c r="C75" s="16" t="s">
@@ -3387,7 +3377,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="63">
+    <row r="76" spans="1:26" ht="62.4">
       <c r="A76" s="27"/>
       <c r="B76" s="15"/>
       <c r="C76" s="16" t="s">
@@ -3408,7 +3398,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="32.25">
+    <row r="77" spans="1:26" ht="31.8">
       <c r="A77" s="13"/>
       <c r="B77" s="24"/>
       <c r="C77" s="16" t="s">
@@ -3441,7 +3431,7 @@
       <c r="Y77" s="12"/>
       <c r="Z77" s="12"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75">
+    <row r="78" spans="1:26" ht="15.6">
       <c r="A78" s="13"/>
       <c r="B78" s="24"/>
       <c r="C78" s="16" t="s">
@@ -3464,7 +3454,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="31.5">
+    <row r="79" spans="1:26" ht="46.8">
       <c r="A79" s="13"/>
       <c r="B79" s="24"/>
       <c r="C79" s="16" t="s">
@@ -3485,7 +3475,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="31.5">
+    <row r="80" spans="1:26" ht="31.2">
       <c r="A80" s="13"/>
       <c r="B80" s="24"/>
       <c r="C80" s="16" t="s">
@@ -3506,7 +3496,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="31.5">
+    <row r="81" spans="1:9" ht="31.2">
       <c r="A81" s="13"/>
       <c r="B81" s="24"/>
       <c r="C81" s="16" t="s">
@@ -3527,7 +3517,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="31.5">
+    <row r="82" spans="1:9" ht="31.2">
       <c r="A82" s="13"/>
       <c r="B82" s="24"/>
       <c r="C82" s="16" t="s">
@@ -3548,7 +3538,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="47.25">
+    <row r="83" spans="1:9" ht="46.8">
       <c r="A83" s="13"/>
       <c r="B83" s="24"/>
       <c r="C83" s="16" t="s">
@@ -3569,7 +3559,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.75">
+    <row r="84" spans="1:9" ht="15.6">
       <c r="A84" s="13"/>
       <c r="B84" s="24"/>
       <c r="C84" s="16" t="s">
@@ -3590,7 +3580,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="47.25">
+    <row r="85" spans="1:9" ht="46.8">
       <c r="A85" s="13"/>
       <c r="B85" s="24"/>
       <c r="C85" s="16" t="s">
@@ -3609,7 +3599,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.75">
+    <row r="86" spans="1:9" ht="15.6">
       <c r="A86" s="13">
         <v>3</v>
       </c>
@@ -3624,7 +3614,7 @@
       <c r="H86" s="16"/>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75">
+    <row r="87" spans="1:9" ht="15.6">
       <c r="A87" s="13"/>
       <c r="B87" s="24"/>
       <c r="C87" s="16" t="s">
@@ -3645,7 +3635,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="31.5">
+    <row r="88" spans="1:9" ht="31.2">
       <c r="A88" s="13"/>
       <c r="B88" s="24"/>
       <c r="C88" s="16" t="s">
@@ -3666,7 +3656,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75">
+    <row r="89" spans="1:9" ht="15.6">
       <c r="A89" s="13"/>
       <c r="B89" s="24"/>
       <c r="C89" s="16" t="s">
@@ -3687,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75">
+    <row r="90" spans="1:9" ht="15.6">
       <c r="A90" s="27"/>
       <c r="B90" s="15"/>
       <c r="C90" s="16" t="s">
@@ -3708,7 +3698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75">
+    <row r="91" spans="1:9" ht="15.6">
       <c r="A91" s="13"/>
       <c r="B91" s="24"/>
       <c r="C91" s="16" t="s">
@@ -3729,7 +3719,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.75">
+    <row r="92" spans="1:9" ht="15.6">
       <c r="A92" s="13"/>
       <c r="B92" s="24"/>
       <c r="C92" s="16" t="s">
@@ -3750,7 +3740,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.75">
+    <row r="93" spans="1:9" ht="15.6">
       <c r="A93" s="13"/>
       <c r="B93" s="24"/>
       <c r="C93" s="16" t="s">
@@ -3771,7 +3761,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.75">
+    <row r="94" spans="1:9" ht="15.6">
       <c r="A94" s="13"/>
       <c r="B94" s="24"/>
       <c r="C94" s="16" t="s">
@@ -3792,7 +3782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.75">
+    <row r="95" spans="1:9" ht="15.6">
       <c r="A95" s="13"/>
       <c r="B95" s="24"/>
       <c r="C95" s="16" t="s">
@@ -3813,7 +3803,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75">
+    <row r="96" spans="1:9" ht="15.6">
       <c r="A96" s="13"/>
       <c r="B96" s="24"/>
       <c r="C96" s="16" t="s">
@@ -3832,7 +3822,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="47.25">
+    <row r="97" spans="1:9" ht="46.8">
       <c r="A97" s="13"/>
       <c r="B97" s="24"/>
       <c r="C97" s="16" t="s">
@@ -3851,7 +3841,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75">
+    <row r="98" spans="1:9" ht="15.6">
       <c r="A98" s="13">
         <v>4</v>
       </c>
@@ -3866,7 +3856,7 @@
       <c r="H98" s="24"/>
       <c r="I98" s="24"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75">
+    <row r="99" spans="1:9" ht="15.6">
       <c r="A99" s="13"/>
       <c r="B99" s="24"/>
       <c r="C99" s="16" t="s">
@@ -3887,7 +3877,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.75">
+    <row r="100" spans="1:9" ht="15.6">
       <c r="A100" s="13"/>
       <c r="B100" s="24"/>
       <c r="C100" s="16" t="s">
@@ -3908,7 +3898,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.75">
+    <row r="101" spans="1:9" ht="15.6">
       <c r="A101" s="13"/>
       <c r="B101" s="24"/>
       <c r="C101" s="16" t="s">
@@ -3929,7 +3919,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75">
+    <row r="102" spans="1:9" ht="15.6">
       <c r="A102" s="13"/>
       <c r="B102" s="24"/>
       <c r="C102" s="16" t="s">
@@ -3950,7 +3940,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75">
+    <row r="103" spans="1:9" ht="15.6">
       <c r="A103" s="13"/>
       <c r="B103" s="24"/>
       <c r="C103" s="16" t="s">
@@ -3971,7 +3961,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="30.75">
+    <row r="104" spans="1:9" ht="30.6">
       <c r="A104" s="13"/>
       <c r="B104" s="24"/>
       <c r="C104" s="16" t="s">
@@ -3992,7 +3982,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75">
+    <row r="105" spans="1:9" ht="15.6">
       <c r="A105" s="13">
         <v>5</v>
       </c>
@@ -4007,7 +3997,7 @@
       <c r="H105" s="24"/>
       <c r="I105" s="24"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75">
+    <row r="106" spans="1:9" ht="15.6">
       <c r="A106" s="13"/>
       <c r="B106" s="24"/>
       <c r="C106" s="16" t="s">
@@ -4028,7 +4018,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="47.25">
+    <row r="107" spans="1:9" ht="46.8">
       <c r="A107" s="13"/>
       <c r="B107" s="24"/>
       <c r="C107" s="16" t="s">
@@ -4049,7 +4039,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.75">
+    <row r="108" spans="1:9" ht="15.6">
       <c r="A108" s="13"/>
       <c r="B108" s="24"/>
       <c r="C108" s="16" t="s">
@@ -4070,7 +4060,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75">
+    <row r="109" spans="1:9" ht="15.6">
       <c r="A109" s="13"/>
       <c r="B109" s="24"/>
       <c r="C109" s="16" t="s">
@@ -4091,7 +4081,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="31.5">
+    <row r="110" spans="1:9" ht="31.2">
       <c r="A110" s="13"/>
       <c r="B110" s="24"/>
       <c r="C110" s="16" t="s">
@@ -4112,7 +4102,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75">
+    <row r="111" spans="1:9" ht="15.6">
       <c r="A111" s="13"/>
       <c r="B111" s="24"/>
       <c r="C111" s="16" t="s">
@@ -4133,7 +4123,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="31.5">
+    <row r="112" spans="1:9" ht="31.2">
       <c r="A112" s="13"/>
       <c r="B112" s="24"/>
       <c r="C112" s="16" t="s">
@@ -4154,7 +4144,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="31.5">
+    <row r="113" spans="1:16" ht="31.2">
       <c r="A113" s="13"/>
       <c r="B113" s="24"/>
       <c r="C113" s="16" t="s">
@@ -4175,7 +4165,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="47.25">
+    <row r="114" spans="1:16" ht="46.8">
       <c r="A114" s="13"/>
       <c r="B114" s="24"/>
       <c r="C114" s="16" t="s">
@@ -4196,7 +4186,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="47.25">
+    <row r="115" spans="1:16" ht="46.8">
       <c r="A115" s="13"/>
       <c r="B115" s="24"/>
       <c r="C115" s="16" t="s">
@@ -4217,7 +4207,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="18.75">
+    <row r="116" spans="1:16" ht="18">
       <c r="A116" s="20" t="s">
         <v>93</v>
       </c>
@@ -4238,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15.75">
+    <row r="117" spans="1:16" ht="15.6">
       <c r="A117" s="13">
         <v>2</v>
       </c>
@@ -4253,7 +4243,7 @@
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:16" ht="63">
+    <row r="118" spans="1:16" ht="62.4">
       <c r="A118" s="13"/>
       <c r="B118" s="24"/>
       <c r="C118" s="16" t="s">
@@ -4274,7 +4264,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="31.5">
+    <row r="119" spans="1:16" ht="31.2">
       <c r="A119" s="27"/>
       <c r="B119" s="24"/>
       <c r="C119" s="16" t="s">
@@ -4295,7 +4285,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="31.5">
+    <row r="120" spans="1:16" ht="31.2">
       <c r="A120" s="13"/>
       <c r="B120" s="24"/>
       <c r="C120" s="16" t="s">
@@ -4316,7 +4306,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="65" customFormat="1" ht="31.5">
+    <row r="121" spans="1:16" s="65" customFormat="1" ht="31.2">
       <c r="A121" s="61"/>
       <c r="B121" s="62"/>
       <c r="C121" s="63" t="s">
@@ -4337,7 +4327,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="65" customFormat="1" ht="31.5">
+    <row r="122" spans="1:16" s="65" customFormat="1" ht="31.2">
       <c r="A122" s="61"/>
       <c r="B122" s="62"/>
       <c r="C122" s="63" t="s">
@@ -4358,7 +4348,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="31.5">
+    <row r="123" spans="1:16" ht="31.2">
       <c r="A123" s="13"/>
       <c r="B123" s="24"/>
       <c r="C123" s="16" t="s">
@@ -4379,7 +4369,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="31.5">
+    <row r="124" spans="1:16" ht="31.2">
       <c r="A124" s="13"/>
       <c r="B124" s="24"/>
       <c r="C124" s="16" t="s">
@@ -4400,7 +4390,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15.75">
+    <row r="125" spans="1:16" ht="31.2">
       <c r="A125" s="13"/>
       <c r="B125" s="24"/>
       <c r="C125" s="16" t="s">
@@ -4421,7 +4411,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="31.5">
+    <row r="126" spans="1:16" ht="31.2">
       <c r="A126" s="13"/>
       <c r="B126" s="24"/>
       <c r="C126" s="16" t="s">
@@ -4442,7 +4432,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="31.5">
+    <row r="127" spans="1:16" ht="31.2">
       <c r="A127" s="13"/>
       <c r="B127" s="24"/>
       <c r="C127" s="16" t="s">
@@ -4463,7 +4453,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15.75">
+    <row r="128" spans="1:16" ht="15.6">
       <c r="A128" s="13">
         <v>3</v>
       </c>
@@ -4478,7 +4468,7 @@
       <c r="H128" s="24"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" ht="63">
+    <row r="129" spans="1:9" ht="62.4">
       <c r="A129" s="13"/>
       <c r="B129" s="24"/>
       <c r="C129" s="16" t="s">
@@ -4499,7 +4489,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15.75">
+    <row r="130" spans="1:9" ht="15.6">
       <c r="A130" s="27"/>
       <c r="B130" s="24"/>
       <c r="C130" s="16" t="s">
@@ -4520,7 +4510,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15.75">
+    <row r="131" spans="1:9" ht="15.6">
       <c r="A131" s="13"/>
       <c r="B131" s="24"/>
       <c r="C131" s="16" t="s">
@@ -4541,7 +4531,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15.75">
+    <row r="132" spans="1:9" ht="15.6">
       <c r="A132" s="13"/>
       <c r="B132" s="24"/>
       <c r="C132" s="16" t="s">
@@ -4562,7 +4552,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="31.5">
+    <row r="133" spans="1:9" ht="31.2">
       <c r="A133" s="13"/>
       <c r="B133" s="24"/>
       <c r="C133" s="16" t="s">
@@ -4583,7 +4573,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15.75">
+    <row r="134" spans="1:9" ht="15.6">
       <c r="A134" s="27"/>
       <c r="B134" s="24"/>
       <c r="C134" s="16" t="s">
@@ -4604,7 +4594,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15.75">
+    <row r="135" spans="1:9" ht="15.6">
       <c r="A135" s="13"/>
       <c r="B135" s="24"/>
       <c r="C135" s="16" t="s">
@@ -4625,7 +4615,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15.75">
+    <row r="136" spans="1:9" ht="15.6">
       <c r="A136" s="13">
         <v>3</v>
       </c>
@@ -4640,7 +4630,7 @@
       <c r="H136" s="24"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" ht="63">
+    <row r="137" spans="1:9" ht="62.4">
       <c r="A137" s="13"/>
       <c r="B137" s="24"/>
       <c r="C137" s="16" t="s">
@@ -4661,7 +4651,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75">
+    <row r="138" spans="1:9" ht="15.6">
       <c r="A138" s="27"/>
       <c r="B138" s="24"/>
       <c r="C138" s="16" t="s">
@@ -4682,7 +4672,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.75">
+    <row r="139" spans="1:9" ht="15.6">
       <c r="A139" s="13"/>
       <c r="B139" s="24"/>
       <c r="C139" s="16" t="s">
@@ -4703,7 +4693,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="31.5">
+    <row r="140" spans="1:9" ht="31.2">
       <c r="A140" s="27"/>
       <c r="B140" s="24"/>
       <c r="C140" s="16" t="s">
@@ -4724,7 +4714,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15.75">
+    <row r="141" spans="1:9" ht="15.6">
       <c r="A141" s="13">
         <v>4</v>
       </c>
@@ -4739,7 +4729,7 @@
       <c r="H141" s="24"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75">
+    <row r="142" spans="1:9" ht="15.6">
       <c r="A142" s="13"/>
       <c r="B142" s="24"/>
       <c r="C142" s="16" t="s">
@@ -4760,7 +4750,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15.75">
+    <row r="143" spans="1:9" ht="15.6">
       <c r="A143" s="27"/>
       <c r="B143" s="24"/>
       <c r="C143" s="16" t="s">
@@ -4781,7 +4771,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15.75">
+    <row r="144" spans="1:9" ht="15.6">
       <c r="A144" s="13"/>
       <c r="B144" s="24"/>
       <c r="C144" s="16" t="s">
@@ -4802,7 +4792,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="65" customFormat="1" ht="31.5">
+    <row r="145" spans="1:9" s="65" customFormat="1" ht="31.2">
       <c r="A145" s="66"/>
       <c r="B145" s="62"/>
       <c r="C145" s="63" t="s">
@@ -4823,7 +4813,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="65" customFormat="1" ht="15.75">
+    <row r="146" spans="1:9" s="65" customFormat="1" ht="15.6">
       <c r="A146" s="61"/>
       <c r="B146" s="62"/>
       <c r="C146" s="63" t="s">
@@ -4844,7 +4834,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="18.75">
+    <row r="147" spans="1:9" ht="18">
       <c r="A147" s="32" t="s">
         <v>119</v>
       </c>
@@ -4861,7 +4851,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15.75">
+    <row r="148" spans="1:9" ht="15.6">
       <c r="A148" s="27">
         <v>1</v>
       </c>
@@ -4876,7 +4866,7 @@
       <c r="H148" s="24"/>
       <c r="I148" s="24"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75">
+    <row r="149" spans="1:9" ht="15.6">
       <c r="A149" s="27"/>
       <c r="B149" s="24"/>
       <c r="C149" s="16" t="s">
@@ -4895,7 +4885,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="31.5">
+    <row r="150" spans="1:9" ht="31.2">
       <c r="A150" s="27"/>
       <c r="B150" s="24"/>
       <c r="C150" s="16" t="s">
@@ -4914,7 +4904,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15.75">
+    <row r="151" spans="1:9" ht="15.6">
       <c r="A151" s="27"/>
       <c r="B151" s="24"/>
       <c r="C151" s="16" t="s">
@@ -4933,7 +4923,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.75">
+    <row r="152" spans="1:9" ht="15.6">
       <c r="A152" s="13"/>
       <c r="B152" s="24"/>
       <c r="C152" s="16" t="s">
@@ -4952,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="31.5">
+    <row r="153" spans="1:9" ht="31.2">
       <c r="A153" s="13"/>
       <c r="B153" s="24"/>
       <c r="C153" s="16" t="s">
@@ -4971,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="65" customFormat="1" ht="63">
+    <row r="154" spans="1:9" s="65" customFormat="1" ht="62.4">
       <c r="A154" s="61"/>
       <c r="B154" s="62"/>
       <c r="C154" s="63" t="s">
@@ -4990,7 +4980,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="65" customFormat="1" ht="31.5">
+    <row r="155" spans="1:9" s="65" customFormat="1" ht="31.2">
       <c r="A155" s="61"/>
       <c r="B155" s="62"/>
       <c r="C155" s="63" t="s">
@@ -5009,7 +4999,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15.75">
+    <row r="156" spans="1:9" ht="15.6">
       <c r="A156" s="27">
         <v>2</v>
       </c>
@@ -5024,7 +5014,7 @@
       <c r="H156" s="24"/>
       <c r="I156" s="24"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75">
+    <row r="157" spans="1:9" ht="15.6">
       <c r="A157" s="27"/>
       <c r="B157" s="24"/>
       <c r="C157" s="16" t="s">
@@ -5043,7 +5033,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="31.5">
+    <row r="158" spans="1:9" ht="31.2">
       <c r="A158" s="27"/>
       <c r="B158" s="24"/>
       <c r="C158" s="16" t="s">
@@ -5062,7 +5052,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15.75">
+    <row r="159" spans="1:9" ht="15.6">
       <c r="A159" s="27"/>
       <c r="B159" s="24"/>
       <c r="C159" s="16" t="s">
@@ -5081,7 +5071,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.75">
+    <row r="160" spans="1:9" ht="15.6">
       <c r="A160" s="27"/>
       <c r="B160" s="24"/>
       <c r="C160" s="16" t="s">
@@ -5100,7 +5090,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="31.5">
+    <row r="161" spans="1:9" ht="31.2">
       <c r="A161" s="27"/>
       <c r="B161" s="24"/>
       <c r="C161" s="16" t="s">
@@ -5119,7 +5109,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15.75">
+    <row r="162" spans="1:9" ht="15.6">
       <c r="A162" s="27">
         <v>3</v>
       </c>
@@ -5134,7 +5124,7 @@
       <c r="H162" s="24"/>
       <c r="I162" s="24"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75">
+    <row r="163" spans="1:9" ht="15.6">
       <c r="A163" s="27"/>
       <c r="B163" s="24"/>
       <c r="C163" s="16" t="s">
@@ -5153,7 +5143,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="31.5">
+    <row r="164" spans="1:9" ht="31.2">
       <c r="A164" s="27"/>
       <c r="B164" s="24"/>
       <c r="C164" s="16" t="s">
@@ -5172,7 +5162,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15.75">
+    <row r="165" spans="1:9" ht="15.6">
       <c r="A165" s="27"/>
       <c r="B165" s="24"/>
       <c r="C165" s="16" t="s">
@@ -5191,7 +5181,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="31.5">
+    <row r="166" spans="1:9" ht="31.2">
       <c r="A166" s="27"/>
       <c r="B166" s="24"/>
       <c r="C166" s="16" t="s">
@@ -5210,7 +5200,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15.75">
+    <row r="167" spans="1:9" ht="15.6">
       <c r="A167" s="27">
         <v>4</v>
       </c>
@@ -5225,7 +5215,7 @@
       <c r="H167" s="24"/>
       <c r="I167" s="24"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75">
+    <row r="168" spans="1:9" ht="15.6">
       <c r="A168" s="27"/>
       <c r="B168" s="24"/>
       <c r="C168" s="16" t="s">
@@ -5244,7 +5234,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="31.5">
+    <row r="169" spans="1:9" ht="31.2">
       <c r="A169" s="35"/>
       <c r="B169" s="36"/>
       <c r="C169" s="37" t="s">
@@ -5263,7 +5253,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15.75">
+    <row r="170" spans="1:9" ht="15.6">
       <c r="A170" s="38"/>
       <c r="B170" s="39"/>
       <c r="C170" s="40" t="s">
@@ -5282,7 +5272,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15.75">
+    <row r="171" spans="1:9" ht="15.6">
       <c r="A171" s="27"/>
       <c r="B171" s="24"/>
       <c r="C171" s="41" t="s">
@@ -5301,7 +5291,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="31.5">
+    <row r="172" spans="1:9" ht="31.2">
       <c r="A172" s="27"/>
       <c r="B172" s="24"/>
       <c r="C172" s="16" t="s">
@@ -5320,7 +5310,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="31.5">
+    <row r="173" spans="1:9" ht="31.2">
       <c r="A173" s="27"/>
       <c r="B173" s="24"/>
       <c r="C173" s="16" t="s">
@@ -5339,7 +5329,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="31.5">
+    <row r="174" spans="1:9" ht="31.2">
       <c r="A174" s="27"/>
       <c r="B174" s="24"/>
       <c r="C174" s="16" t="s">
@@ -5358,7 +5348,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15.75">
+    <row r="175" spans="1:9" ht="15.6">
       <c r="A175" s="27">
         <v>5</v>
       </c>
@@ -5373,7 +5363,7 @@
       <c r="H175" s="28"/>
       <c r="I175" s="28"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75">
+    <row r="176" spans="1:9" ht="15.6">
       <c r="A176" s="27"/>
       <c r="B176" s="24"/>
       <c r="C176" s="41" t="s">
@@ -5392,7 +5382,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="31.5">
+    <row r="177" spans="1:9" ht="31.2">
       <c r="A177" s="27"/>
       <c r="B177" s="24"/>
       <c r="C177" s="41" t="s">
@@ -5411,7 +5401,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15.75">
+    <row r="178" spans="1:9" ht="15.6">
       <c r="A178" s="27"/>
       <c r="B178" s="24"/>
       <c r="C178" s="41" t="s">
@@ -5430,7 +5420,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15.75">
+    <row r="179" spans="1:9" ht="15.6">
       <c r="A179" s="27"/>
       <c r="B179" s="24"/>
       <c r="C179" s="41" t="s">
@@ -5449,7 +5439,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="31.5">
+    <row r="180" spans="1:9" ht="31.2">
       <c r="A180" s="27"/>
       <c r="B180" s="24"/>
       <c r="C180" s="16" t="s">
@@ -5468,7 +5458,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15.75">
+    <row r="181" spans="1:9" ht="15.6">
       <c r="A181" s="27">
         <v>5</v>
       </c>
@@ -5483,7 +5473,7 @@
       <c r="H181" s="28"/>
       <c r="I181" s="28"/>
     </row>
-    <row r="182" spans="1:9" ht="47.25">
+    <row r="182" spans="1:9" ht="46.8">
       <c r="A182" s="27"/>
       <c r="B182" s="24"/>
       <c r="C182" s="16" t="s">
@@ -5502,14 +5492,14 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="18.75">
+    <row r="183" spans="1:9" ht="18">
       <c r="A183" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B183" s="176" t="s">
+      <c r="B183" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="C183" s="177"/>
+      <c r="C183" s="178"/>
       <c r="D183" s="56"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
@@ -5519,7 +5509,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15.75">
+    <row r="184" spans="1:9" ht="15.6">
       <c r="A184" s="13">
         <v>2</v>
       </c>
@@ -5534,7 +5524,7 @@
       <c r="H184" s="15"/>
       <c r="I184" s="14"/>
     </row>
-    <row r="185" spans="1:9" s="75" customFormat="1" ht="15.75">
+    <row r="185" spans="1:9" s="75" customFormat="1" ht="15.6">
       <c r="A185" s="69"/>
       <c r="B185" s="70"/>
       <c r="C185" s="71" t="s">
@@ -5555,7 +5545,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="75" customFormat="1" ht="31.5">
+    <row r="186" spans="1:9" s="75" customFormat="1" ht="31.2">
       <c r="A186" s="69"/>
       <c r="B186" s="70"/>
       <c r="C186" s="71" t="s">
@@ -5576,7 +5566,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.75">
+    <row r="187" spans="1:9" ht="15.6">
       <c r="A187" s="13">
         <v>3</v>
       </c>
@@ -5591,7 +5581,7 @@
       <c r="H187" s="24"/>
       <c r="I187" s="24"/>
     </row>
-    <row r="188" spans="1:9" s="75" customFormat="1" ht="78.75">
+    <row r="188" spans="1:9" s="75" customFormat="1" ht="78">
       <c r="A188" s="69"/>
       <c r="B188" s="73"/>
       <c r="C188" s="76" t="s">
@@ -5612,7 +5602,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="75" customFormat="1" ht="31.5">
+    <row r="189" spans="1:9" s="75" customFormat="1" ht="31.2">
       <c r="A189" s="69"/>
       <c r="B189" s="73"/>
       <c r="C189" s="76" t="s">
@@ -5633,7 +5623,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15.75">
+    <row r="190" spans="1:9" ht="15.6">
       <c r="A190" s="13">
         <v>4</v>
       </c>
@@ -5648,7 +5638,7 @@
       <c r="H190" s="24"/>
       <c r="I190" s="24"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75">
+    <row r="191" spans="1:9" ht="15.6">
       <c r="A191" s="43"/>
       <c r="B191" s="15"/>
       <c r="C191" s="16" t="s">
@@ -5669,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15.75">
+    <row r="192" spans="1:9" ht="15.6">
       <c r="A192" s="43"/>
       <c r="B192" s="15"/>
       <c r="C192" s="16" t="s">
@@ -5690,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="83" customFormat="1" ht="15.75">
+    <row r="193" spans="1:9" s="83" customFormat="1" ht="15.6">
       <c r="A193" s="77"/>
       <c r="B193" s="78"/>
       <c r="C193" s="79" t="s">
@@ -5711,7 +5701,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="83" customFormat="1" ht="47.25">
+    <row r="194" spans="1:9" s="83" customFormat="1" ht="46.8">
       <c r="A194" s="77"/>
       <c r="B194" s="78"/>
       <c r="C194" s="79" t="s">
@@ -5730,7 +5720,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="18.75">
+    <row r="195" spans="1:9" ht="18">
       <c r="A195" s="20" t="s">
         <v>161</v>
       </c>
@@ -5747,7 +5737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75">
+    <row r="196" spans="1:9" ht="15.6">
       <c r="A196" s="13">
         <v>1</v>
       </c>
@@ -5762,7 +5752,7 @@
       <c r="H196" s="24"/>
       <c r="I196" s="24"/>
     </row>
-    <row r="197" spans="1:9" ht="47.25">
+    <row r="197" spans="1:9" ht="46.8">
       <c r="A197" s="13"/>
       <c r="B197" s="24"/>
       <c r="C197" s="16" t="s">
@@ -5781,7 +5771,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="47.25">
+    <row r="198" spans="1:9" ht="46.8">
       <c r="A198" s="13"/>
       <c r="B198" s="24"/>
       <c r="C198" s="16" t="s">
@@ -5800,7 +5790,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="47.25">
+    <row r="199" spans="1:9" ht="46.8">
       <c r="A199" s="13"/>
       <c r="B199" s="24"/>
       <c r="C199" s="16" t="s">
@@ -5819,7 +5809,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="47.25">
+    <row r="200" spans="1:9" ht="46.8">
       <c r="A200" s="13"/>
       <c r="B200" s="24"/>
       <c r="C200" s="16" t="s">
@@ -5838,7 +5828,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="63">
+    <row r="201" spans="1:9" ht="62.4">
       <c r="A201" s="13"/>
       <c r="B201" s="24"/>
       <c r="C201" s="16" t="s">
@@ -5857,7 +5847,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="31.5">
+    <row r="202" spans="1:9" ht="31.2">
       <c r="A202" s="13"/>
       <c r="B202" s="24"/>
       <c r="C202" s="16" t="s">
@@ -5876,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="31.5">
+    <row r="203" spans="1:9" ht="31.2">
       <c r="A203" s="27"/>
       <c r="B203" s="24"/>
       <c r="C203" s="16" t="s">
@@ -5895,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="31.5">
+    <row r="204" spans="1:9" ht="31.2">
       <c r="A204" s="27"/>
       <c r="B204" s="24"/>
       <c r="C204" s="16" t="s">
@@ -5914,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15.75">
+    <row r="205" spans="1:9" ht="15.6">
       <c r="A205" s="27"/>
       <c r="B205" s="24"/>
       <c r="C205" s="16" t="s">
@@ -5935,7 +5925,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="31.5">
+    <row r="206" spans="1:9" ht="31.2">
       <c r="A206" s="27"/>
       <c r="B206" s="24"/>
       <c r="C206" s="16" t="s">
@@ -5954,7 +5944,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="15.75">
+    <row r="207" spans="1:9" ht="15.6">
       <c r="A207" s="27"/>
       <c r="B207" s="24"/>
       <c r="C207" s="16"/>
@@ -5969,7 +5959,7 @@
       <c r="H207" s="24"/>
       <c r="I207" s="24"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75">
+    <row r="208" spans="1:9" ht="15.6">
       <c r="A208" s="27"/>
       <c r="B208" s="24"/>
       <c r="C208" s="16"/>
@@ -5984,7 +5974,7 @@
       <c r="H208" s="24"/>
       <c r="I208" s="24"/>
     </row>
-    <row r="209" spans="1:9" ht="15.75">
+    <row r="209" spans="1:9" ht="15.6">
       <c r="A209" s="27"/>
       <c r="B209" s="24"/>
       <c r="C209" s="16"/>
@@ -5999,7 +5989,7 @@
       <c r="H209" s="24"/>
       <c r="I209" s="24"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75">
+    <row r="210" spans="1:9" ht="15.6">
       <c r="A210" s="27"/>
       <c r="B210" s="24"/>
       <c r="C210" s="16"/>
@@ -6014,7 +6004,7 @@
       <c r="H210" s="24"/>
       <c r="I210" s="24"/>
     </row>
-    <row r="211" spans="1:9" ht="18.75">
+    <row r="211" spans="1:9" ht="18">
       <c r="A211" s="20" t="s">
         <v>179</v>
       </c>
@@ -6031,7 +6021,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15.75">
+    <row r="212" spans="1:9" ht="15.6">
       <c r="A212" s="13">
         <v>1</v>
       </c>
@@ -6046,7 +6036,7 @@
       <c r="H212" s="24"/>
       <c r="I212" s="24"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75">
+    <row r="213" spans="1:9" ht="15.6">
       <c r="A213" s="27"/>
       <c r="B213" s="24"/>
       <c r="C213" s="16" t="s">
@@ -6067,7 +6057,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="31.5">
+    <row r="214" spans="1:9" ht="31.2">
       <c r="A214" s="27"/>
       <c r="B214" s="24"/>
       <c r="C214" s="16" t="s">
@@ -6086,7 +6076,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15.75">
+    <row r="215" spans="1:9" ht="15.6">
       <c r="A215" s="27"/>
       <c r="B215" s="24"/>
       <c r="C215" s="16" t="s">
@@ -6105,7 +6095,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="31.5">
+    <row r="216" spans="1:9" ht="31.2">
       <c r="A216" s="27"/>
       <c r="B216" s="24"/>
       <c r="C216" s="16" t="s">
@@ -6124,7 +6114,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="31.5">
+    <row r="217" spans="1:9" ht="31.2">
       <c r="A217" s="27"/>
       <c r="B217" s="24"/>
       <c r="C217" s="16" t="s">
@@ -6143,7 +6133,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15.75">
+    <row r="218" spans="1:9" ht="15.6">
       <c r="A218" s="27"/>
       <c r="B218" s="24"/>
       <c r="C218" s="16" t="s">
@@ -6162,7 +6152,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15.75">
+    <row r="219" spans="1:9" ht="15.6">
       <c r="A219" s="27"/>
       <c r="B219" s="24"/>
       <c r="C219" s="16" t="s">
@@ -6181,7 +6171,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15.75">
+    <row r="220" spans="1:9" ht="15.6">
       <c r="A220" s="27"/>
       <c r="B220" s="24"/>
       <c r="C220" s="16"/>
@@ -6196,7 +6186,7 @@
       <c r="H220" s="24"/>
       <c r="I220" s="24"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75">
+    <row r="221" spans="1:9" ht="15.6">
       <c r="A221" s="27"/>
       <c r="B221" s="24"/>
       <c r="C221" s="16"/>
@@ -6211,7 +6201,7 @@
       <c r="H221" s="24"/>
       <c r="I221" s="24"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75">
+    <row r="222" spans="1:9" ht="15.6">
       <c r="A222" s="27"/>
       <c r="B222" s="24"/>
       <c r="C222" s="16"/>
@@ -6226,7 +6216,7 @@
       <c r="H222" s="24"/>
       <c r="I222" s="24"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75">
+    <row r="223" spans="1:9" ht="15.6">
       <c r="A223" s="27"/>
       <c r="B223" s="24"/>
       <c r="C223" s="16"/>
@@ -6241,7 +6231,7 @@
       <c r="H223" s="24"/>
       <c r="I223" s="24"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75">
+    <row r="224" spans="1:9" ht="15.6">
       <c r="A224" s="27"/>
       <c r="B224" s="24"/>
       <c r="C224" s="16" t="s">
@@ -6260,7 +6250,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15.75">
+    <row r="225" spans="1:9" ht="15.6">
       <c r="A225" s="27"/>
       <c r="B225" s="24"/>
       <c r="C225" s="16"/>
@@ -6275,7 +6265,7 @@
       <c r="H225" s="24"/>
       <c r="I225" s="24"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75">
+    <row r="226" spans="1:9" ht="15.6">
       <c r="A226" s="27"/>
       <c r="B226" s="24"/>
       <c r="C226" s="16"/>
@@ -6290,7 +6280,7 @@
       <c r="H226" s="24"/>
       <c r="I226" s="24"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75">
+    <row r="227" spans="1:9" ht="15.6">
       <c r="A227" s="27"/>
       <c r="B227" s="24"/>
       <c r="C227" s="16"/>
@@ -6305,7 +6295,7 @@
       <c r="H227" s="24"/>
       <c r="I227" s="24"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75">
+    <row r="228" spans="1:9" ht="15.6">
       <c r="A228" s="27"/>
       <c r="B228" s="24"/>
       <c r="C228" s="16"/>
@@ -6320,7 +6310,7 @@
       <c r="H228" s="24"/>
       <c r="I228" s="24"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75">
+    <row r="229" spans="1:9" ht="15.6">
       <c r="A229" s="27"/>
       <c r="B229" s="24"/>
       <c r="C229" s="16" t="s">
@@ -6339,7 +6329,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15.75">
+    <row r="230" spans="1:9" ht="15.6">
       <c r="A230" s="27"/>
       <c r="B230" s="24"/>
       <c r="C230" s="16"/>
@@ -6354,7 +6344,7 @@
       <c r="H230" s="24"/>
       <c r="I230" s="24"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75">
+    <row r="231" spans="1:9" ht="15.6">
       <c r="A231" s="27"/>
       <c r="B231" s="24"/>
       <c r="C231" s="16"/>
@@ -6369,7 +6359,7 @@
       <c r="H231" s="24"/>
       <c r="I231" s="24"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75">
+    <row r="232" spans="1:9" ht="15.6">
       <c r="A232" s="27"/>
       <c r="B232" s="24"/>
       <c r="C232" s="16"/>
@@ -6384,7 +6374,7 @@
       <c r="H232" s="24"/>
       <c r="I232" s="24"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75">
+    <row r="233" spans="1:9" ht="15.6">
       <c r="A233" s="27"/>
       <c r="B233" s="24"/>
       <c r="C233" s="16"/>
@@ -6399,7 +6389,7 @@
       <c r="H233" s="24"/>
       <c r="I233" s="24"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75">
+    <row r="234" spans="1:9" ht="15.6">
       <c r="A234" s="27"/>
       <c r="B234" s="24"/>
       <c r="C234" s="16" t="s">
@@ -6418,7 +6408,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15.75">
+    <row r="235" spans="1:9" ht="15.6">
       <c r="A235" s="27"/>
       <c r="B235" s="24"/>
       <c r="C235" s="16"/>
@@ -6433,7 +6423,7 @@
       <c r="H235" s="24"/>
       <c r="I235" s="24"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75">
+    <row r="236" spans="1:9" ht="15.6">
       <c r="A236" s="27"/>
       <c r="B236" s="24"/>
       <c r="C236" s="16"/>
@@ -6448,7 +6438,7 @@
       <c r="H236" s="24"/>
       <c r="I236" s="24"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75">
+    <row r="237" spans="1:9" ht="15.6">
       <c r="A237" s="27"/>
       <c r="B237" s="24"/>
       <c r="C237" s="16"/>
@@ -6463,7 +6453,7 @@
       <c r="H237" s="24"/>
       <c r="I237" s="24"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75">
+    <row r="238" spans="1:9" ht="15.6">
       <c r="A238" s="27"/>
       <c r="B238" s="24"/>
       <c r="C238" s="16"/>
@@ -6478,7 +6468,7 @@
       <c r="H238" s="24"/>
       <c r="I238" s="24"/>
     </row>
-    <row r="239" spans="1:9" ht="31.5">
+    <row r="239" spans="1:9" ht="31.2">
       <c r="A239" s="27"/>
       <c r="B239" s="24"/>
       <c r="C239" s="16" t="s">
@@ -6497,7 +6487,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="15.75">
+    <row r="240" spans="1:9" ht="15.6">
       <c r="A240" s="27"/>
       <c r="B240" s="24"/>
       <c r="C240" s="16"/>
@@ -6512,7 +6502,7 @@
       <c r="H240" s="24"/>
       <c r="I240" s="24"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75">
+    <row r="241" spans="1:9" ht="15.6">
       <c r="A241" s="27"/>
       <c r="B241" s="24"/>
       <c r="C241" s="16"/>
@@ -6527,7 +6517,7 @@
       <c r="H241" s="24"/>
       <c r="I241" s="24"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75">
+    <row r="242" spans="1:9" ht="15.6">
       <c r="A242" s="27"/>
       <c r="B242" s="24"/>
       <c r="C242" s="16"/>
@@ -6542,7 +6532,7 @@
       <c r="H242" s="24"/>
       <c r="I242" s="24"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75">
+    <row r="243" spans="1:9" ht="15.6">
       <c r="A243" s="27"/>
       <c r="B243" s="24"/>
       <c r="C243" s="16"/>
@@ -6572,7 +6562,7 @@
       <c r="H244" s="24"/>
       <c r="I244" s="24"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75">
+    <row r="245" spans="1:9" ht="15.6">
       <c r="A245" s="27"/>
       <c r="B245" s="24"/>
       <c r="C245" s="16" t="s">
@@ -6591,7 +6581,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="31.5">
+    <row r="246" spans="1:9" ht="31.2">
       <c r="A246" s="27"/>
       <c r="B246" s="24"/>
       <c r="C246" s="16" t="s">
@@ -6612,7 +6602,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="15.75">
+    <row r="247" spans="1:9" ht="15.6">
       <c r="A247" s="27"/>
       <c r="B247" s="24"/>
       <c r="C247" s="16" t="s">
@@ -6631,7 +6621,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="15.75">
+    <row r="248" spans="1:9" ht="15.6">
       <c r="A248" s="47"/>
       <c r="B248" s="28"/>
       <c r="C248" s="41" t="s">
@@ -6654,7 +6644,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="15.75">
+    <row r="249" spans="1:9" ht="15.6">
       <c r="A249" s="47"/>
       <c r="B249" s="28"/>
       <c r="C249" s="41"/>
@@ -6665,7 +6655,7 @@
       <c r="H249" s="28"/>
       <c r="I249" s="28"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75">
+    <row r="250" spans="1:9" ht="15.6">
       <c r="A250" s="47"/>
       <c r="B250" s="28"/>
       <c r="C250" s="41"/>
@@ -6680,7 +6670,7 @@
       <c r="H250" s="28"/>
       <c r="I250" s="28"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75">
+    <row r="251" spans="1:9" ht="15.6">
       <c r="A251" s="47"/>
       <c r="B251" s="28"/>
       <c r="C251" s="41"/>
@@ -6695,7 +6685,7 @@
       <c r="H251" s="28"/>
       <c r="I251" s="28"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75">
+    <row r="252" spans="1:9" ht="15.6">
       <c r="A252" s="47"/>
       <c r="B252" s="28"/>
       <c r="C252" s="41"/>
@@ -6710,7 +6700,7 @@
       <c r="H252" s="28"/>
       <c r="I252" s="28"/>
     </row>
-    <row r="253" spans="1:9" ht="15.75">
+    <row r="253" spans="1:9" ht="15.6">
       <c r="A253" s="27"/>
       <c r="B253" s="24"/>
       <c r="C253" s="16" t="s">
@@ -6729,7 +6719,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="15.75">
+    <row r="254" spans="1:9" ht="15.6">
       <c r="A254" s="27"/>
       <c r="B254" s="24"/>
       <c r="C254" s="16"/>
@@ -6744,7 +6734,7 @@
       <c r="H254" s="24"/>
       <c r="I254" s="24"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75">
+    <row r="255" spans="1:9" ht="15.6">
       <c r="A255" s="27"/>
       <c r="B255" s="24"/>
       <c r="C255" s="16"/>
@@ -6759,7 +6749,7 @@
       <c r="H255" s="24"/>
       <c r="I255" s="24"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75">
+    <row r="256" spans="1:9" ht="15.6">
       <c r="A256" s="27"/>
       <c r="B256" s="24"/>
       <c r="C256" s="16"/>
@@ -6774,7 +6764,7 @@
       <c r="H256" s="24"/>
       <c r="I256" s="24"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75">
+    <row r="257" spans="1:9" ht="15.6">
       <c r="A257" s="27"/>
       <c r="B257" s="24"/>
       <c r="C257" s="16"/>
@@ -6789,7 +6779,7 @@
       <c r="H257" s="24"/>
       <c r="I257" s="24"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75">
+    <row r="258" spans="1:9" ht="15.6">
       <c r="A258" s="27"/>
       <c r="B258" s="24"/>
       <c r="C258" s="16" t="s">
@@ -6808,7 +6798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75">
+    <row r="259" spans="1:9" ht="15.6">
       <c r="A259" s="27"/>
       <c r="B259" s="24"/>
       <c r="C259" s="16"/>
@@ -6823,7 +6813,7 @@
       <c r="H259" s="24"/>
       <c r="I259" s="24"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75">
+    <row r="260" spans="1:9" ht="15.6">
       <c r="A260" s="27"/>
       <c r="B260" s="24"/>
       <c r="C260" s="16"/>
@@ -6838,7 +6828,7 @@
       <c r="H260" s="24"/>
       <c r="I260" s="24"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75">
+    <row r="261" spans="1:9" ht="15.6">
       <c r="A261" s="27"/>
       <c r="B261" s="24"/>
       <c r="C261" s="16"/>
@@ -6853,7 +6843,7 @@
       <c r="H261" s="24"/>
       <c r="I261" s="24"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75">
+    <row r="262" spans="1:9" ht="15.6">
       <c r="A262" s="27"/>
       <c r="B262" s="24"/>
       <c r="C262" s="16"/>
@@ -6868,7 +6858,7 @@
       <c r="H262" s="24"/>
       <c r="I262" s="24"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75">
+    <row r="263" spans="1:9" ht="15.6">
       <c r="A263" s="27"/>
       <c r="B263" s="24"/>
       <c r="C263" s="16" t="s">
@@ -13042,18 +13032,18 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="44.25" customWidth="1"/>
+    <col min="2" max="2" width="44.19921875" customWidth="1"/>
     <col min="3" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="179" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="179"/>
+      <c r="B1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="52">
@@ -16129,21 +16119,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AA393D-AA6B-4646-9ED8-1374ECD20783}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="2.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.69921875" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" customWidth="1"/>
-    <col min="7" max="7" width="2.75" customWidth="1"/>
+    <col min="6" max="6" width="77.5" customWidth="1"/>
+    <col min="7" max="7" width="2.69921875" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
@@ -16183,7 +16173,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -16215,7 +16205,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="47.25">
+    <row r="5" spans="1:9" ht="46.8">
       <c r="A5" s="69"/>
       <c r="B5" s="70"/>
       <c r="C5" s="76" t="s">
@@ -16257,7 +16247,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="31.5">
+    <row r="7" spans="1:9" ht="31.2">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="76" t="s">
@@ -16276,7 +16266,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.5">
+    <row r="8" spans="1:9" ht="31.2">
       <c r="A8" s="69"/>
       <c r="B8" s="70"/>
       <c r="C8" s="76" t="s">
@@ -16333,7 +16323,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.2">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="76" t="s">
@@ -16352,7 +16342,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5">
+    <row r="12" spans="1:9" ht="31.2">
       <c r="A12" s="77"/>
       <c r="B12" s="147"/>
       <c r="C12" s="79" t="s">
@@ -16371,7 +16361,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
@@ -16403,7 +16393,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" ht="31.5">
+    <row r="15" spans="1:9" ht="31.2">
       <c r="A15" s="69"/>
       <c r="B15" s="73"/>
       <c r="C15" s="76" t="s">
@@ -16424,7 +16414,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.5">
+    <row r="16" spans="1:9" ht="31.2">
       <c r="A16" s="69"/>
       <c r="B16" s="73"/>
       <c r="C16" s="76" t="s">
@@ -16447,7 +16437,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5">
+    <row r="17" spans="1:9" ht="31.2">
       <c r="A17" s="69"/>
       <c r="B17" s="73"/>
       <c r="C17" s="76" t="s">
@@ -16468,7 +16458,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="31.5">
+    <row r="18" spans="1:9" ht="31.2">
       <c r="A18" s="69"/>
       <c r="B18" s="73"/>
       <c r="C18" s="76" t="s">
@@ -16489,7 +16479,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="31.5">
+    <row r="19" spans="1:9" ht="31.2">
       <c r="A19" s="69"/>
       <c r="B19" s="73"/>
       <c r="C19" s="76" t="s">
@@ -16510,7 +16500,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="63">
+    <row r="20" spans="1:9" ht="62.4">
       <c r="A20" s="69"/>
       <c r="B20" s="73"/>
       <c r="C20" s="76" t="s">
@@ -16529,7 +16519,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25">
+    <row r="21" spans="1:9" ht="46.8">
       <c r="A21" s="69"/>
       <c r="B21" s="73"/>
       <c r="C21" s="76" t="s">
@@ -16548,7 +16538,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="47.25">
+    <row r="22" spans="1:9" ht="46.8">
       <c r="A22" s="69"/>
       <c r="B22" s="73"/>
       <c r="C22" s="76" t="s">
@@ -16567,7 +16557,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="31.5">
+    <row r="23" spans="1:9" ht="31.2">
       <c r="A23" s="69"/>
       <c r="B23" s="73"/>
       <c r="C23" s="76" t="s">
@@ -16586,7 +16576,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5">
+    <row r="24" spans="1:9" ht="31.2">
       <c r="A24" s="77"/>
       <c r="B24" s="78"/>
       <c r="C24" s="79" t="s">
@@ -16605,7 +16595,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75">
+    <row r="25" spans="1:9" ht="18">
       <c r="A25" s="32" t="s">
         <v>119</v>
       </c>
@@ -16656,7 +16646,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="47.25">
+    <row r="28" spans="1:9" ht="46.8">
       <c r="A28" s="139"/>
       <c r="B28" s="73"/>
       <c r="C28" s="76" t="s">
@@ -16675,7 +16665,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="31.5">
+    <row r="29" spans="1:9" ht="31.2">
       <c r="A29" s="139"/>
       <c r="B29" s="73"/>
       <c r="C29" s="76" t="s">
@@ -16694,7 +16684,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="31.5">
+    <row r="30" spans="1:9" ht="31.2">
       <c r="A30" s="69"/>
       <c r="B30" s="73"/>
       <c r="C30" s="76" t="s">
@@ -16713,7 +16703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="31.5">
+    <row r="31" spans="1:9" ht="31.2">
       <c r="A31" s="69"/>
       <c r="B31" s="73"/>
       <c r="C31" s="76" t="s">
@@ -16732,7 +16722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="78.75">
+    <row r="32" spans="1:9" ht="78">
       <c r="A32" s="69"/>
       <c r="B32" s="73"/>
       <c r="C32" s="76" t="s">
@@ -16751,7 +16741,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="47.25">
+    <row r="33" spans="1:11" ht="46.8">
       <c r="A33" s="142"/>
       <c r="B33" s="143"/>
       <c r="C33" s="144" t="s">
@@ -16770,7 +16760,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75">
+    <row r="34" spans="1:11" ht="18">
       <c r="A34" s="20" t="s">
         <v>161</v>
       </c>
@@ -16787,7 +16777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:11">
       <c r="A35" s="13">
         <v>1</v>
       </c>
@@ -16802,7 +16792,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
     </row>
-    <row r="36" spans="1:9" ht="47.25">
+    <row r="36" spans="1:11" ht="46.8">
       <c r="A36" s="69"/>
       <c r="B36" s="73"/>
       <c r="C36" s="76" t="s">
@@ -16820,8 +16810,10 @@
       <c r="I36" s="73">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="63">
+      <c r="J36" s="176"/>
+      <c r="K36" s="168"/>
+    </row>
+    <row r="37" spans="1:11" ht="62.4">
       <c r="A37" s="69"/>
       <c r="B37" s="73"/>
       <c r="C37" s="76" t="s">
@@ -16839,8 +16831,10 @@
       <c r="I37" s="73">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="47.25">
+      <c r="J37" s="176"/>
+      <c r="K37" s="168"/>
+    </row>
+    <row r="38" spans="1:11" ht="46.8">
       <c r="A38" s="69"/>
       <c r="B38" s="73"/>
       <c r="C38" s="76" t="s">
@@ -16858,8 +16852,10 @@
       <c r="I38" s="73">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="63">
+      <c r="J38" s="176"/>
+      <c r="K38" s="168"/>
+    </row>
+    <row r="39" spans="1:11" ht="62.4">
       <c r="A39" s="69"/>
       <c r="B39" s="73"/>
       <c r="C39" s="76" t="s">
@@ -16877,8 +16873,10 @@
       <c r="I39" s="73">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="94.5">
+      <c r="J39" s="176"/>
+      <c r="K39" s="168"/>
+    </row>
+    <row r="40" spans="1:11" ht="93.6">
       <c r="A40" s="69"/>
       <c r="B40" s="73"/>
       <c r="C40" s="76" t="s">
@@ -16896,8 +16894,10 @@
       <c r="I40" s="73">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="31.5">
+      <c r="J40" s="176"/>
+      <c r="K40" s="168"/>
+    </row>
+    <row r="41" spans="1:11" ht="31.2">
       <c r="A41" s="69"/>
       <c r="B41" s="73"/>
       <c r="C41" s="76" t="s">
@@ -16916,7 +16916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="47.25">
+    <row r="42" spans="1:11" ht="46.8">
       <c r="A42" s="139"/>
       <c r="B42" s="73"/>
       <c r="C42" s="76" t="s">
@@ -16935,7 +16935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="31.5">
+    <row r="43" spans="1:11" ht="31.2">
       <c r="A43" s="139"/>
       <c r="B43" s="73"/>
       <c r="C43" s="76" t="s">
@@ -16954,7 +16954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="31.5">
+    <row r="44" spans="1:11" ht="31.2">
       <c r="A44" s="139"/>
       <c r="B44" s="73"/>
       <c r="C44" s="76" t="s">
@@ -16975,7 +16975,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="31.5">
+    <row r="45" spans="1:11" ht="31.2">
       <c r="A45" s="139"/>
       <c r="B45" s="73"/>
       <c r="C45" s="76" t="s">
@@ -16994,7 +16994,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11">
       <c r="A46" s="27"/>
       <c r="B46" s="24"/>
       <c r="C46" s="16"/>
@@ -17009,7 +17009,7 @@
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11">
       <c r="A47" s="27"/>
       <c r="B47" s="24"/>
       <c r="C47" s="16"/>
@@ -17024,7 +17024,7 @@
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11">
       <c r="A48" s="27"/>
       <c r="B48" s="24"/>
       <c r="C48" s="16"/>
@@ -17054,7 +17054,7 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
     </row>
-    <row r="50" spans="1:9" ht="18.75">
+    <row r="50" spans="1:9" ht="18">
       <c r="A50" s="45"/>
       <c r="B50" s="44"/>
       <c r="C50" s="48"/>
@@ -17079,20 +17079,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7DE62F-1EA4-4F0E-995A-167F86BD24DE}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.75" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" customWidth="1"/>
+    <col min="3" max="3" width="2.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.69921875" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.375" customWidth="1"/>
-    <col min="7" max="7" width="49.875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="3.375" customWidth="1"/>
+    <col min="6" max="6" width="3.3984375" customWidth="1"/>
+    <col min="7" max="7" width="49.8984375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="3.3984375" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
@@ -17132,7 +17132,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -17164,7 +17164,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:12" ht="47.25">
+    <row r="5" spans="1:12" ht="46.8">
       <c r="A5" s="84"/>
       <c r="B5" s="94"/>
       <c r="C5" s="86" t="s">
@@ -17187,7 +17187,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="31.5">
+    <row r="6" spans="1:12" ht="31.2">
       <c r="A6" s="84"/>
       <c r="B6" s="94"/>
       <c r="C6" s="86" t="s">
@@ -17206,7 +17206,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="31.5">
+    <row r="7" spans="1:12" ht="31.2">
       <c r="A7" s="84"/>
       <c r="B7" s="94"/>
       <c r="C7" s="86" t="s">
@@ -17263,7 +17263,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.5">
+    <row r="10" spans="1:12" ht="31.2">
       <c r="A10" s="84"/>
       <c r="B10" s="94"/>
       <c r="C10" s="86" t="s">
@@ -17282,7 +17282,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="31.5">
+    <row r="11" spans="1:12" ht="31.2">
       <c r="A11" s="77"/>
       <c r="B11" s="147"/>
       <c r="C11" s="79" t="s">
@@ -17301,7 +17301,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75">
+    <row r="12" spans="1:12" ht="18">
       <c r="A12" s="20" t="s">
         <v>29</v>
       </c>
@@ -17366,7 +17366,7 @@
       </c>
       <c r="J14" s="75"/>
     </row>
-    <row r="15" spans="1:12" ht="110.25">
+    <row r="15" spans="1:12" ht="109.2">
       <c r="A15" s="84"/>
       <c r="B15" s="85"/>
       <c r="C15" s="86" t="s">
@@ -17386,7 +17386,7 @@
       </c>
       <c r="J15" s="75"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5">
+    <row r="16" spans="1:12" ht="31.2">
       <c r="A16" s="89"/>
       <c r="B16" s="90"/>
       <c r="C16" s="86" t="s">
@@ -17406,7 +17406,7 @@
       </c>
       <c r="J16" s="75"/>
     </row>
-    <row r="17" spans="1:10" ht="31.5">
+    <row r="17" spans="1:10" ht="31.2">
       <c r="A17" s="89"/>
       <c r="B17" s="90"/>
       <c r="C17" s="86" t="s">
@@ -17425,7 +17425,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="78.75">
+    <row r="18" spans="1:10" ht="78">
       <c r="A18" s="77"/>
       <c r="B18" s="78"/>
       <c r="C18" s="79" t="s">
@@ -17444,7 +17444,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25">
+    <row r="19" spans="1:10" ht="46.8">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="86" t="s">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="J19" s="75"/>
     </row>
-    <row r="20" spans="1:10" ht="63">
+    <row r="20" spans="1:10" ht="78">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="J20" s="75"/>
     </row>
-    <row r="21" spans="1:10" ht="47.25">
+    <row r="21" spans="1:10" ht="46.8">
       <c r="A21" s="84"/>
       <c r="B21" s="85"/>
       <c r="C21" s="86" t="s">
@@ -17528,7 +17528,7 @@
       </c>
       <c r="J22" s="75"/>
     </row>
-    <row r="23" spans="1:10" ht="31.5">
+    <row r="23" spans="1:10" ht="31.2">
       <c r="A23" s="89"/>
       <c r="B23" s="90"/>
       <c r="C23" s="86" t="s">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="J23" s="75"/>
     </row>
-    <row r="24" spans="1:10" ht="47.25">
+    <row r="24" spans="1:10" ht="46.8">
       <c r="A24" s="84"/>
       <c r="B24" s="85"/>
       <c r="C24" s="86" t="s">
@@ -17568,7 +17568,7 @@
       </c>
       <c r="J24" s="75"/>
     </row>
-    <row r="25" spans="1:10" ht="47.25">
+    <row r="25" spans="1:10" ht="46.8">
       <c r="A25" s="84"/>
       <c r="B25" s="85"/>
       <c r="C25" s="86" t="s">
@@ -17588,7 +17588,7 @@
       </c>
       <c r="J25" s="75"/>
     </row>
-    <row r="26" spans="1:10" ht="47.25">
+    <row r="26" spans="1:10" ht="46.8">
       <c r="A26" s="84"/>
       <c r="B26" s="85"/>
       <c r="C26" s="86" t="s">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="J26" s="75"/>
     </row>
-    <row r="27" spans="1:10" ht="31.5">
+    <row r="27" spans="1:10" ht="31.2">
       <c r="A27" s="84"/>
       <c r="B27" s="85"/>
       <c r="C27" s="86" t="s">
@@ -17632,7 +17632,7 @@
       </c>
       <c r="J27" s="75"/>
     </row>
-    <row r="28" spans="1:10" ht="78.75">
+    <row r="28" spans="1:10" ht="78">
       <c r="A28" s="89"/>
       <c r="B28" s="90"/>
       <c r="C28" s="86" t="s">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="J28" s="75"/>
     </row>
-    <row r="29" spans="1:10" ht="47.25">
+    <row r="29" spans="1:10" ht="46.8">
       <c r="A29" s="84"/>
       <c r="B29" s="85"/>
       <c r="C29" s="86" t="s">
@@ -17676,7 +17676,7 @@
       </c>
       <c r="J29" s="75"/>
     </row>
-    <row r="30" spans="1:10" ht="31.5">
+    <row r="30" spans="1:10" ht="31.2">
       <c r="A30" s="84"/>
       <c r="B30" s="85"/>
       <c r="C30" s="86" t="s">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="J30" s="75"/>
     </row>
-    <row r="31" spans="1:10" ht="47.25">
+    <row r="31" spans="1:10" ht="46.8">
       <c r="A31" s="84"/>
       <c r="B31" s="85"/>
       <c r="C31" s="86" t="s">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="J31" s="75"/>
     </row>
-    <row r="32" spans="1:10" ht="47.25">
+    <row r="32" spans="1:10" ht="46.8">
       <c r="A32" s="84"/>
       <c r="B32" s="85"/>
       <c r="C32" s="86" t="s">
@@ -17743,7 +17743,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="47.25">
+    <row r="33" spans="1:10" ht="46.8">
       <c r="A33" s="84"/>
       <c r="B33" s="85"/>
       <c r="C33" s="86" t="s">
@@ -17765,7 +17765,7 @@
       </c>
       <c r="J33" s="75"/>
     </row>
-    <row r="34" spans="1:10" ht="47.25">
+    <row r="34" spans="1:10" ht="46.8">
       <c r="A34" s="84"/>
       <c r="B34" s="85"/>
       <c r="C34" s="86" t="s">
@@ -17787,7 +17787,7 @@
       </c>
       <c r="J34" s="75"/>
     </row>
-    <row r="35" spans="1:10" ht="63">
+    <row r="35" spans="1:10" ht="78">
       <c r="A35" s="84"/>
       <c r="B35" s="85"/>
       <c r="C35" s="86" t="s">
@@ -17829,11 +17829,11 @@
       <c r="I36" s="92">
         <v>1.7</v>
       </c>
-      <c r="J36" s="180">
+      <c r="J36" s="181">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="63">
+    <row r="37" spans="1:10" ht="62.4">
       <c r="A37" s="61"/>
       <c r="B37" s="62"/>
       <c r="C37" s="63" t="s">
@@ -17851,9 +17851,9 @@
       <c r="I37" s="92">
         <v>0.5</v>
       </c>
-      <c r="J37" s="180"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.75">
+      <c r="J37" s="181"/>
+    </row>
+    <row r="38" spans="1:10" ht="18">
       <c r="A38" s="20" t="s">
         <v>93</v>
       </c>
@@ -17885,7 +17885,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
     </row>
-    <row r="40" spans="1:10" ht="78.75">
+    <row r="40" spans="1:10" ht="78">
       <c r="A40" s="84"/>
       <c r="B40" s="85"/>
       <c r="C40" s="86" t="s">
@@ -17906,7 +17906,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="31.5">
+    <row r="41" spans="1:10" ht="31.2">
       <c r="A41" s="89"/>
       <c r="B41" s="85"/>
       <c r="C41" s="86" t="s">
@@ -17927,7 +17927,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="31.5">
+    <row r="42" spans="1:10" ht="31.2">
       <c r="A42" s="84"/>
       <c r="B42" s="85"/>
       <c r="C42" s="86" t="s">
@@ -17948,7 +17948,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="47.25">
+    <row r="43" spans="1:10" ht="46.8">
       <c r="A43" s="142"/>
       <c r="B43" s="143"/>
       <c r="C43" s="144" t="s">
@@ -17969,7 +17969,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="47.25">
+    <row r="44" spans="1:10" ht="46.8">
       <c r="A44" s="142"/>
       <c r="B44" s="143"/>
       <c r="C44" s="144" t="s">
@@ -17990,7 +17990,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="47.25">
+    <row r="45" spans="1:10" ht="46.8">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
       <c r="C45" s="86" t="s">
@@ -18011,7 +18011,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="31.5">
+    <row r="46" spans="1:10" ht="31.2">
       <c r="A46" s="61"/>
       <c r="B46" s="62"/>
       <c r="C46" s="63" t="s">
@@ -18032,7 +18032,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="31.5">
+    <row r="47" spans="1:10" ht="31.2">
       <c r="A47" s="61"/>
       <c r="B47" s="62"/>
       <c r="C47" s="63" t="s">
@@ -18053,7 +18053,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="31.5">
+    <row r="48" spans="1:10" ht="31.2">
       <c r="A48" s="61"/>
       <c r="B48" s="62"/>
       <c r="C48" s="63" t="s">
@@ -18074,7 +18074,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="31.5">
+    <row r="49" spans="1:9" ht="31.2">
       <c r="A49" s="61"/>
       <c r="B49" s="62"/>
       <c r="C49" s="63" t="s">
@@ -18095,7 +18095,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75">
+    <row r="50" spans="1:9" ht="18">
       <c r="A50" s="32" t="s">
         <v>119</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="47.25">
+    <row r="53" spans="1:9" ht="46.8">
       <c r="A53" s="89"/>
       <c r="B53" s="85"/>
       <c r="C53" s="86" t="s">
@@ -18165,7 +18165,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="31.5">
+    <row r="54" spans="1:9" ht="31.2">
       <c r="A54" s="89"/>
       <c r="B54" s="85"/>
       <c r="C54" s="86" t="s">
@@ -18184,7 +18184,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="31.5">
+    <row r="55" spans="1:9" ht="31.2">
       <c r="A55" s="89"/>
       <c r="B55" s="85"/>
       <c r="C55" s="86" t="s">
@@ -18203,7 +18203,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="47.25">
+    <row r="56" spans="1:9" ht="46.8">
       <c r="A56" s="154"/>
       <c r="B56" s="143"/>
       <c r="C56" s="144" t="s">
@@ -18222,7 +18222,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75">
+    <row r="57" spans="1:9" ht="18">
       <c r="A57" s="45"/>
       <c r="B57" s="44"/>
       <c r="C57" s="48"/>
@@ -18250,26 +18250,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD74207D-E02D-4AAF-AE0D-D631436D63DA}">
   <dimension ref="A1:Z728"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:L16"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="2.375" customWidth="1"/>
-    <col min="4" max="4" width="49.25" style="60" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="2.75" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" customWidth="1"/>
+    <col min="4" max="4" width="49.19921875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="3.59765625" customWidth="1"/>
+    <col min="6" max="6" width="4.69921875" customWidth="1"/>
+    <col min="7" max="7" width="2.69921875" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="15" width="8.5" customWidth="1"/>
-    <col min="16" max="16" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.8984375" bestFit="1" customWidth="1"/>
     <col min="17" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18363,7 +18363,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75">
+    <row r="6" spans="1:26" ht="15.6">
       <c r="A6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -18374,7 +18374,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18.75">
+    <row r="7" spans="1:26" ht="18">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -18411,7 +18411,7 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75">
+    <row r="8" spans="1:26" ht="15.6">
       <c r="A8" s="13">
         <v>3</v>
       </c>
@@ -18426,7 +18426,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:26" ht="31.5">
+    <row r="9" spans="1:26" ht="31.2">
       <c r="A9" s="84"/>
       <c r="B9" s="94"/>
       <c r="C9" s="86" t="s">
@@ -18449,7 +18449,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75">
+    <row r="10" spans="1:26" ht="15.6">
       <c r="A10" s="84"/>
       <c r="B10" s="94"/>
       <c r="C10" s="86" t="s">
@@ -18468,7 +18468,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75">
+    <row r="11" spans="1:26" ht="15.6">
       <c r="A11" s="84"/>
       <c r="B11" s="94"/>
       <c r="C11" s="86" t="s">
@@ -18487,7 +18487,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75">
+    <row r="12" spans="1:26" ht="15.6">
       <c r="A12" s="84"/>
       <c r="B12" s="94"/>
       <c r="C12" s="86" t="s">
@@ -18506,7 +18506,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75">
+    <row r="13" spans="1:26" ht="15.6">
       <c r="A13" s="84"/>
       <c r="B13" s="94"/>
       <c r="C13" s="86" t="s">
@@ -18525,7 +18525,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75">
+    <row r="14" spans="1:26" ht="15.6">
       <c r="A14" s="84"/>
       <c r="B14" s="94"/>
       <c r="C14" s="86" t="s">
@@ -18544,7 +18544,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="31.5">
+    <row r="15" spans="1:26" ht="31.2">
       <c r="A15" s="77"/>
       <c r="B15" s="147"/>
       <c r="C15" s="79" t="s">
@@ -18563,7 +18563,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75">
+    <row r="16" spans="1:26" ht="15.6">
       <c r="A16" s="13">
         <v>3</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75">
+    <row r="17" spans="1:16" ht="15.6">
       <c r="A17" s="84"/>
       <c r="B17" s="85"/>
       <c r="C17" s="86" t="s">
@@ -18610,7 +18610,7 @@
       <c r="K17" s="168"/>
       <c r="L17" s="170"/>
     </row>
-    <row r="18" spans="1:16" ht="31.5">
+    <row r="18" spans="1:16" ht="31.2">
       <c r="A18" s="84"/>
       <c r="B18" s="85"/>
       <c r="C18" s="86" t="s">
@@ -18633,7 +18633,7 @@
       <c r="K18" s="168"/>
       <c r="L18" s="170"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75">
+    <row r="19" spans="1:16" ht="15.6">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="86" t="s">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="K19" s="168"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75">
+    <row r="20" spans="1:16" ht="15.6">
       <c r="A20" s="27"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16" t="s">
@@ -18679,7 +18679,7 @@
       <c r="K20" s="168"/>
       <c r="L20" s="170"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75">
+    <row r="21" spans="1:16" ht="15.6">
       <c r="A21" s="13"/>
       <c r="B21" s="24"/>
       <c r="C21" s="16" t="s">
@@ -18703,7 +18703,7 @@
       <c r="K21" s="168"/>
       <c r="L21" s="170"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75">
+    <row r="22" spans="1:16" ht="15.6">
       <c r="A22" s="84"/>
       <c r="B22" s="85"/>
       <c r="C22" s="86" t="s">
@@ -18726,7 +18726,7 @@
       <c r="K22" s="168"/>
       <c r="L22" s="170"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75">
+    <row r="23" spans="1:16" ht="15.6">
       <c r="A23" s="142"/>
       <c r="B23" s="143"/>
       <c r="C23" s="144" t="s">
@@ -18747,7 +18747,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75">
+    <row r="24" spans="1:16" ht="15.6">
       <c r="A24" s="13"/>
       <c r="B24" s="24"/>
       <c r="C24" s="16" t="s">
@@ -18770,7 +18770,7 @@
       <c r="J24" s="165"/>
       <c r="L24" s="170"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75">
+    <row r="25" spans="1:16" ht="15.6">
       <c r="A25" s="13"/>
       <c r="B25" s="24"/>
       <c r="C25" s="16" t="s">
@@ -18793,7 +18793,7 @@
       <c r="J25" s="165"/>
       <c r="L25" s="170"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75">
+    <row r="26" spans="1:16" ht="15.6">
       <c r="A26" s="84"/>
       <c r="B26" s="85"/>
       <c r="C26" s="86" t="s">
@@ -18814,7 +18814,7 @@
       <c r="K26" s="168"/>
       <c r="L26" s="171"/>
     </row>
-    <row r="27" spans="1:16" ht="47.25">
+    <row r="27" spans="1:16" ht="46.8">
       <c r="A27" s="77"/>
       <c r="B27" s="78"/>
       <c r="C27" s="79" t="s">
@@ -18835,7 +18835,7 @@
       <c r="K27" s="168"/>
       <c r="L27" s="170"/>
     </row>
-    <row r="28" spans="1:16" ht="18.75">
+    <row r="28" spans="1:16" ht="18">
       <c r="A28" s="20" t="s">
         <v>93</v>
       </c>
@@ -18853,7 +18853,7 @@
       </c>
       <c r="P28" s="31"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75">
+    <row r="29" spans="1:16" ht="15.6">
       <c r="A29" s="13">
         <v>3</v>
       </c>
@@ -18868,7 +18868,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:16" ht="63">
+    <row r="30" spans="1:16" ht="62.4">
       <c r="A30" s="84"/>
       <c r="B30" s="85"/>
       <c r="C30" s="86" t="s">
@@ -18889,7 +18889,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75">
+    <row r="31" spans="1:16" ht="15.6">
       <c r="A31" s="27"/>
       <c r="B31" s="24"/>
       <c r="C31" s="16" t="s">
@@ -18910,7 +18910,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75">
+    <row r="32" spans="1:16" ht="15.6">
       <c r="A32" s="84"/>
       <c r="B32" s="85"/>
       <c r="C32" s="86" t="s">
@@ -18931,7 +18931,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:10" ht="15.6">
       <c r="A33" s="84"/>
       <c r="B33" s="85"/>
       <c r="C33" s="86" t="s">
@@ -18952,7 +18952,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="31.5">
+    <row r="34" spans="1:10" ht="31.2">
       <c r="A34" s="13"/>
       <c r="B34" s="24"/>
       <c r="C34" s="16" t="s">
@@ -18973,7 +18973,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="15.6">
       <c r="A35" s="89"/>
       <c r="B35" s="85"/>
       <c r="C35" s="86" t="s">
@@ -18994,7 +18994,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="15.6">
       <c r="A36" s="13"/>
       <c r="B36" s="24"/>
       <c r="C36" s="16" t="s">
@@ -19015,7 +19015,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18.75">
+    <row r="37" spans="1:10" ht="18">
       <c r="A37" s="32" t="s">
         <v>119</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" ht="15.6">
       <c r="A38" s="27">
         <v>3</v>
       </c>
@@ -19047,7 +19047,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" ht="15.6">
       <c r="A39" s="89"/>
       <c r="B39" s="85"/>
       <c r="C39" s="86" t="s">
@@ -19066,7 +19066,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="31.5">
+    <row r="40" spans="1:10" ht="31.2">
       <c r="A40" s="89"/>
       <c r="B40" s="85"/>
       <c r="C40" s="86" t="s">
@@ -19085,7 +19085,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="15.6">
       <c r="A41" s="89"/>
       <c r="B41" s="85"/>
       <c r="C41" s="86" t="s">
@@ -19104,7 +19104,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="31.5">
+    <row r="42" spans="1:10" ht="31.2">
       <c r="A42" s="98"/>
       <c r="B42" s="99"/>
       <c r="C42" s="100" t="s">
@@ -19123,14 +19123,14 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="18.75">
+    <row r="43" spans="1:10" ht="18">
       <c r="A43" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="177"/>
+      <c r="C43" s="178"/>
       <c r="D43" s="56"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -19140,7 +19140,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
+    <row r="44" spans="1:10" ht="15.6">
       <c r="A44" s="13">
         <v>2</v>
       </c>
@@ -19155,7 +19155,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="15.6">
       <c r="A45" s="84"/>
       <c r="B45" s="94"/>
       <c r="C45" s="90" t="s">
@@ -19175,11 +19175,11 @@
       <c r="I45" s="156">
         <v>1.6</v>
       </c>
-      <c r="J45" s="181" t="s">
+      <c r="J45" s="182" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="31.5">
+    <row r="46" spans="1:10" ht="15.6">
       <c r="A46" s="84"/>
       <c r="B46" s="94"/>
       <c r="C46" s="90" t="s">
@@ -19199,9 +19199,9 @@
       <c r="I46" s="156">
         <v>1.2</v>
       </c>
-      <c r="J46" s="181"/>
-    </row>
-    <row r="47" spans="1:10" ht="18.75">
+      <c r="J46" s="182"/>
+    </row>
+    <row r="47" spans="1:10" ht="18">
       <c r="A47" s="20" t="s">
         <v>179</v>
       </c>
@@ -25368,26 +25368,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E52C86-4936-4CF2-A60B-3FE539F55B8F}">
   <dimension ref="A1:Z724"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:L16"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="2.375" customWidth="1"/>
-    <col min="4" max="4" width="49.25" style="60" customWidth="1"/>
-    <col min="5" max="5" width="3.375" customWidth="1"/>
-    <col min="6" max="6" width="3.125" customWidth="1"/>
-    <col min="7" max="7" width="3.25" customWidth="1"/>
-    <col min="8" max="8" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" customWidth="1"/>
+    <col min="4" max="4" width="49.19921875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="3.3984375" customWidth="1"/>
+    <col min="6" max="6" width="3.09765625" customWidth="1"/>
+    <col min="7" max="7" width="3.19921875" customWidth="1"/>
+    <col min="8" max="8" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" customWidth="1"/>
     <col min="11" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="12.69921875" customWidth="1"/>
     <col min="13" max="15" width="8.5" customWidth="1"/>
-    <col min="16" max="16" width="5.25" customWidth="1"/>
+    <col min="16" max="16" width="5.19921875" customWidth="1"/>
     <col min="17" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25487,7 +25487,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75">
+    <row r="6" spans="1:26" ht="15.6">
       <c r="A6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -25495,7 +25495,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="18.75">
+    <row r="7" spans="1:26" ht="18">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -25529,7 +25529,7 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75">
+    <row r="8" spans="1:26" ht="15.6">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -25544,7 +25544,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:26" ht="31.5">
+    <row r="9" spans="1:26" ht="31.2">
       <c r="A9" s="84"/>
       <c r="B9" s="94"/>
       <c r="C9" s="86" t="s">
@@ -25567,7 +25567,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75">
+    <row r="10" spans="1:26" ht="15.6">
       <c r="A10" s="84"/>
       <c r="B10" s="94"/>
       <c r="C10" s="86" t="s">
@@ -25586,7 +25586,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="18.75">
+    <row r="11" spans="1:26" ht="18">
       <c r="A11" s="84"/>
       <c r="B11" s="94"/>
       <c r="C11" s="86" t="s">
@@ -25617,7 +25617,7 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75">
+    <row r="12" spans="1:26" ht="15.6">
       <c r="A12" s="84"/>
       <c r="B12" s="94"/>
       <c r="C12" s="86" t="s">
@@ -25636,7 +25636,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75">
+    <row r="13" spans="1:26" ht="15.6">
       <c r="A13" s="84"/>
       <c r="B13" s="94"/>
       <c r="C13" s="86" t="s">
@@ -25655,7 +25655,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75">
+    <row r="14" spans="1:26" ht="15.6">
       <c r="A14" s="84"/>
       <c r="B14" s="94"/>
       <c r="C14" s="86" t="s">
@@ -25674,7 +25674,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="31.5">
+    <row r="15" spans="1:26" ht="31.2">
       <c r="A15" s="77"/>
       <c r="B15" s="147"/>
       <c r="C15" s="79" t="s">
@@ -25693,7 +25693,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="18.75">
+    <row r="16" spans="1:26" ht="18">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -25719,7 +25719,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75">
+    <row r="17" spans="1:16" ht="15.6">
       <c r="A17" s="13">
         <v>4</v>
       </c>
@@ -25734,7 +25734,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75">
+    <row r="18" spans="1:16" ht="15.6">
       <c r="A18" s="84"/>
       <c r="B18" s="85"/>
       <c r="C18" s="86" t="s">
@@ -25758,7 +25758,7 @@
       <c r="K18" s="170"/>
       <c r="L18" s="165"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75">
+    <row r="19" spans="1:16" ht="15.6">
       <c r="A19" s="13"/>
       <c r="B19" s="24"/>
       <c r="C19" s="16" t="s">
@@ -25782,7 +25782,7 @@
       <c r="K19" s="170"/>
       <c r="L19" s="165"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75">
+    <row r="20" spans="1:16" ht="15.6">
       <c r="A20" s="102"/>
       <c r="B20" s="103"/>
       <c r="C20" s="104" t="s">
@@ -25806,7 +25806,7 @@
       <c r="K20" s="170"/>
       <c r="L20" s="165"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75">
+    <row r="21" spans="1:16" ht="15.6">
       <c r="A21" s="84"/>
       <c r="B21" s="85"/>
       <c r="C21" s="86" t="s">
@@ -25830,7 +25830,7 @@
       <c r="K21" s="170"/>
       <c r="L21" s="165"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75">
+    <row r="22" spans="1:16" ht="15.6">
       <c r="A22" s="84"/>
       <c r="B22" s="85"/>
       <c r="C22" s="86" t="s">
@@ -25854,7 +25854,7 @@
       <c r="K22" s="170"/>
       <c r="L22" s="165"/>
     </row>
-    <row r="23" spans="1:16" ht="30.75">
+    <row r="23" spans="1:16" ht="30.6">
       <c r="A23" s="84"/>
       <c r="B23" s="85"/>
       <c r="C23" s="106" t="s">
@@ -25877,7 +25877,7 @@
       <c r="K23" s="170"/>
       <c r="L23" s="165"/>
     </row>
-    <row r="24" spans="1:16" ht="18.75">
+    <row r="24" spans="1:16" ht="18">
       <c r="A24" s="20" t="s">
         <v>93</v>
       </c>
@@ -25895,7 +25895,7 @@
       </c>
       <c r="P24" s="31"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75">
+    <row r="25" spans="1:16" ht="15.6">
       <c r="A25" s="13">
         <v>3</v>
       </c>
@@ -25910,7 +25910,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:16" ht="47.25">
+    <row r="26" spans="1:16" ht="46.8">
       <c r="A26" s="84"/>
       <c r="B26" s="85"/>
       <c r="C26" s="86" t="s">
@@ -25931,7 +25931,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75">
+    <row r="27" spans="1:16" ht="15.6">
       <c r="A27" s="27"/>
       <c r="B27" s="24"/>
       <c r="C27" s="16" t="s">
@@ -25952,7 +25952,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75">
+    <row r="28" spans="1:16" ht="15.6">
       <c r="A28" s="84"/>
       <c r="B28" s="85"/>
       <c r="C28" s="86" t="s">
@@ -25973,7 +25973,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="31.5">
+    <row r="29" spans="1:16" ht="31.2">
       <c r="A29" s="27"/>
       <c r="B29" s="24"/>
       <c r="C29" s="16" t="s">
@@ -25994,7 +25994,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="18.75">
+    <row r="30" spans="1:16" ht="18">
       <c r="A30" s="32" t="s">
         <v>119</v>
       </c>
@@ -26011,7 +26011,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75">
+    <row r="31" spans="1:16" ht="15.6">
       <c r="A31" s="27">
         <v>4</v>
       </c>
@@ -26026,7 +26026,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75">
+    <row r="32" spans="1:16" ht="15.6">
       <c r="A32" s="89"/>
       <c r="B32" s="85"/>
       <c r="C32" s="86" t="s">
@@ -26045,7 +26045,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="31.5">
+    <row r="33" spans="1:12" ht="31.2">
       <c r="A33" s="109"/>
       <c r="B33" s="110"/>
       <c r="C33" s="111" t="s">
@@ -26064,7 +26064,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75">
+    <row r="34" spans="1:12" ht="15.6">
       <c r="A34" s="112"/>
       <c r="B34" s="113"/>
       <c r="C34" s="114" t="s">
@@ -26083,7 +26083,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75">
+    <row r="35" spans="1:12" ht="15.6">
       <c r="A35" s="154"/>
       <c r="B35" s="143"/>
       <c r="C35" s="157" t="s">
@@ -26102,7 +26102,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="31.5">
+    <row r="36" spans="1:12" ht="31.2">
       <c r="A36" s="154"/>
       <c r="B36" s="143"/>
       <c r="C36" s="144" t="s">
@@ -26121,7 +26121,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5">
+    <row r="37" spans="1:12" ht="31.2">
       <c r="A37" s="89"/>
       <c r="B37" s="85"/>
       <c r="C37" s="86" t="s">
@@ -26139,11 +26139,11 @@
       <c r="I37" s="85">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L37" s="182" t="s">
+      <c r="L37" s="183" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="31.5">
+    <row r="38" spans="1:12" ht="31.2">
       <c r="A38" s="89"/>
       <c r="B38" s="85"/>
       <c r="C38" s="86" t="s">
@@ -26161,16 +26161,16 @@
       <c r="I38" s="85">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L38" s="182"/>
-    </row>
-    <row r="39" spans="1:12" ht="18.75">
+      <c r="L38" s="183"/>
+    </row>
+    <row r="39" spans="1:12" ht="18">
       <c r="A39" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="177"/>
+      <c r="C39" s="178"/>
       <c r="D39" s="56"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -26180,7 +26180,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75">
+    <row r="40" spans="1:12" ht="15.6">
       <c r="A40" s="13">
         <v>3</v>
       </c>
@@ -26195,7 +26195,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:12" ht="78.75">
+    <row r="41" spans="1:12" ht="78">
       <c r="A41" s="77"/>
       <c r="B41" s="78"/>
       <c r="C41" s="79" t="s">
@@ -26216,7 +26216,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="31.5">
+    <row r="42" spans="1:12" ht="31.2">
       <c r="A42" s="77"/>
       <c r="B42" s="78"/>
       <c r="C42" s="79" t="s">
@@ -26237,7 +26237,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="18.75">
+    <row r="43" spans="1:12" ht="18">
       <c r="A43" s="20" t="s">
         <v>179</v>
       </c>
@@ -32404,27 +32404,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FBD4B8-253B-4012-881C-49897AE5B687}">
   <dimension ref="A1:Z728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I46" sqref="A46:I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="2.375" customWidth="1"/>
-    <col min="4" max="4" width="49.25" style="60" customWidth="1"/>
-    <col min="5" max="5" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" customWidth="1"/>
+    <col min="4" max="4" width="49.19921875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="3.8984375" customWidth="1"/>
     <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="3.375" customWidth="1"/>
-    <col min="8" max="8" width="3.25" customWidth="1"/>
-    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.3984375" customWidth="1"/>
+    <col min="8" max="8" width="3.19921875" customWidth="1"/>
+    <col min="9" max="9" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="8.5" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="13.3984375" customWidth="1"/>
     <col min="15" max="15" width="8.5" customWidth="1"/>
-    <col min="16" max="16" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.8984375" bestFit="1" customWidth="1"/>
     <col min="17" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32518,7 +32518,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75">
+    <row r="6" spans="1:26" ht="15.6">
       <c r="A6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -32526,7 +32526,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="18.75">
+    <row r="7" spans="1:26" ht="18">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -32560,7 +32560,7 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75">
+    <row r="8" spans="1:26" ht="15.6">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -32575,7 +32575,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:26" ht="31.5">
+    <row r="9" spans="1:26" ht="31.2">
       <c r="A9" s="84"/>
       <c r="B9" s="94"/>
       <c r="C9" s="86" t="s">
@@ -32598,7 +32598,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75">
+    <row r="10" spans="1:26" ht="15.6">
       <c r="A10" s="84"/>
       <c r="B10" s="94"/>
       <c r="C10" s="86" t="s">
@@ -32617,7 +32617,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75">
+    <row r="11" spans="1:26" ht="15.6">
       <c r="A11" s="84"/>
       <c r="B11" s="94"/>
       <c r="C11" s="86" t="s">
@@ -32636,7 +32636,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75">
+    <row r="12" spans="1:26" ht="15.6">
       <c r="A12" s="84"/>
       <c r="B12" s="94"/>
       <c r="C12" s="86" t="s">
@@ -32655,7 +32655,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75">
+    <row r="13" spans="1:26" ht="15.6">
       <c r="A13" s="84"/>
       <c r="B13" s="94"/>
       <c r="C13" s="86" t="s">
@@ -32674,7 +32674,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75">
+    <row r="14" spans="1:26" ht="15.6">
       <c r="A14" s="84"/>
       <c r="B14" s="94"/>
       <c r="C14" s="86" t="s">
@@ -32693,7 +32693,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="31.5">
+    <row r="15" spans="1:26" ht="31.2">
       <c r="A15" s="77"/>
       <c r="B15" s="147"/>
       <c r="C15" s="79" t="s">
@@ -32712,7 +32712,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="18.75">
+    <row r="16" spans="1:26" ht="18">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -32738,7 +32738,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75">
+    <row r="17" spans="1:16" ht="15.6">
       <c r="A17" s="13">
         <v>5</v>
       </c>
@@ -32753,7 +32753,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75">
+    <row r="18" spans="1:16" ht="15.6">
       <c r="A18" s="84"/>
       <c r="B18" s="85"/>
       <c r="C18" s="86" t="s">
@@ -32774,7 +32774,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="47.25">
+    <row r="19" spans="1:16" ht="46.8">
       <c r="A19" s="142"/>
       <c r="B19" s="143"/>
       <c r="C19" s="144" t="s">
@@ -32795,7 +32795,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75">
+    <row r="20" spans="1:16" ht="15.6">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
@@ -32816,7 +32816,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75">
+    <row r="21" spans="1:16" ht="15.6">
       <c r="A21" s="84"/>
       <c r="B21" s="85"/>
       <c r="C21" s="86" t="s">
@@ -32837,7 +32837,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="31.5">
+    <row r="22" spans="1:16" ht="31.2">
       <c r="A22" s="84"/>
       <c r="B22" s="85"/>
       <c r="C22" s="86" t="s">
@@ -32858,7 +32858,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75">
+    <row r="23" spans="1:16" ht="15.6">
       <c r="A23" s="84"/>
       <c r="B23" s="85"/>
       <c r="C23" s="86" t="s">
@@ -32882,7 +32882,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="31.5">
+    <row r="24" spans="1:16" ht="31.2">
       <c r="A24" s="84"/>
       <c r="B24" s="85"/>
       <c r="C24" s="86" t="s">
@@ -32907,7 +32907,7 @@
         <v>9.7999999999999989</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="31.5">
+    <row r="25" spans="1:16" ht="31.2">
       <c r="A25" s="84"/>
       <c r="B25" s="85"/>
       <c r="C25" s="86" t="s">
@@ -32928,7 +32928,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="47.25">
+    <row r="26" spans="1:16" ht="46.8">
       <c r="A26" s="142"/>
       <c r="B26" s="143"/>
       <c r="C26" s="144" t="s">
@@ -32949,7 +32949,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="50.25">
+    <row r="27" spans="1:16" ht="62.4">
       <c r="A27" s="77"/>
       <c r="B27" s="78"/>
       <c r="C27" s="79" t="s">
@@ -32973,7 +32973,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18.75">
+    <row r="28" spans="1:16" ht="18">
       <c r="A28" s="20" t="s">
         <v>93</v>
       </c>
@@ -32994,7 +32994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75">
+    <row r="29" spans="1:16" ht="15.6">
       <c r="A29" s="13">
         <v>4</v>
       </c>
@@ -33009,7 +33009,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75">
+    <row r="30" spans="1:16" ht="15.6">
       <c r="A30" s="13"/>
       <c r="B30" s="24"/>
       <c r="C30" s="16" t="s">
@@ -33030,7 +33030,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75">
+    <row r="31" spans="1:16" ht="15.6">
       <c r="A31" s="89"/>
       <c r="B31" s="85"/>
       <c r="C31" s="86" t="s">
@@ -33051,7 +33051,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75">
+    <row r="32" spans="1:16" ht="15.6">
       <c r="A32" s="84"/>
       <c r="B32" s="85"/>
       <c r="C32" s="86" t="s">
@@ -33072,7 +33072,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="31.5">
+    <row r="33" spans="1:10" ht="31.2">
       <c r="A33" s="98"/>
       <c r="B33" s="99"/>
       <c r="C33" s="100" t="s">
@@ -33093,7 +33093,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="15.6">
       <c r="A34" s="84"/>
       <c r="B34" s="85"/>
       <c r="C34" s="86" t="s">
@@ -33114,7 +33114,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18.75">
+    <row r="35" spans="1:10" ht="18">
       <c r="A35" s="32" t="s">
         <v>119</v>
       </c>
@@ -33131,7 +33131,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="15.6">
       <c r="A36" s="27">
         <v>5</v>
       </c>
@@ -33146,7 +33146,7 @@
       <c r="H36" s="124"/>
       <c r="I36" s="124"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75">
+    <row r="37" spans="1:10" ht="15.6">
       <c r="A37" s="89"/>
       <c r="B37" s="85"/>
       <c r="C37" s="115" t="s">
@@ -33165,7 +33165,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="31.5">
+    <row r="38" spans="1:10" ht="31.2">
       <c r="A38" s="89"/>
       <c r="B38" s="85"/>
       <c r="C38" s="115" t="s">
@@ -33184,7 +33184,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" ht="15.6">
       <c r="A39" s="154"/>
       <c r="B39" s="143"/>
       <c r="C39" s="157" t="s">
@@ -33203,7 +33203,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
+    <row r="40" spans="1:10" ht="15.6">
       <c r="A40" s="154"/>
       <c r="B40" s="143"/>
       <c r="C40" s="157" t="s">
@@ -33222,7 +33222,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="31.5">
+    <row r="41" spans="1:10" ht="31.2">
       <c r="A41" s="154"/>
       <c r="B41" s="143"/>
       <c r="C41" s="144" t="s">
@@ -33241,14 +33241,14 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18.75">
+    <row r="42" spans="1:10" ht="18">
       <c r="A42" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="176" t="s">
+      <c r="B42" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="177"/>
+      <c r="C42" s="178"/>
       <c r="D42" s="117"/>
       <c r="E42" s="126"/>
       <c r="F42" s="126"/>
@@ -33258,7 +33258,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="15.6">
       <c r="A43" s="13">
         <v>4</v>
       </c>
@@ -33273,7 +33273,7 @@
       <c r="H43" s="127"/>
       <c r="I43" s="127"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
+    <row r="44" spans="1:10" ht="15.6">
       <c r="A44" s="172"/>
       <c r="B44" s="173"/>
       <c r="C44" s="144" t="s">
@@ -33294,7 +33294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="15.6">
       <c r="A45" s="172"/>
       <c r="B45" s="173"/>
       <c r="C45" s="144" t="s">
@@ -33315,7 +33315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75">
+    <row r="46" spans="1:10" ht="15.6">
       <c r="A46" s="142"/>
       <c r="B46" s="143"/>
       <c r="C46" s="144" t="s">
@@ -33336,7 +33336,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="47.25">
+    <row r="47" spans="1:10" ht="46.8">
       <c r="A47" s="142"/>
       <c r="B47" s="143"/>
       <c r="C47" s="144" t="s">
@@ -39505,23 +39505,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A080A9F7-E2FA-4E8B-8255-C5ABECCDA509}">
   <dimension ref="A1:Z743"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection sqref="A1:I63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="2.375" customWidth="1"/>
-    <col min="4" max="4" width="49.25" style="60" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" customWidth="1"/>
+    <col min="4" max="4" width="49.19921875" style="60" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="112.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="112.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="8.5" customWidth="1"/>
-    <col min="16" max="16" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.8984375" bestFit="1" customWidth="1"/>
     <col min="17" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39571,7 +39571,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="63">
+    <row r="5" spans="1:26" ht="62.4">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -39615,7 +39615,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75">
+    <row r="6" spans="1:26" ht="15.6">
       <c r="A6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -39623,7 +39623,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="18.75">
+    <row r="7" spans="1:26" ht="18">
       <c r="A7" s="32" t="s">
         <v>119</v>
       </c>
@@ -39640,7 +39640,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75">
+    <row r="8" spans="1:26" ht="15.6">
       <c r="A8" s="27">
         <v>5</v>
       </c>
@@ -39655,7 +39655,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="1:26" ht="47.25">
+    <row r="9" spans="1:26" ht="46.8">
       <c r="A9" s="27"/>
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
@@ -39674,7 +39674,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="18.75">
+    <row r="10" spans="1:26" ht="18">
       <c r="A10" s="20" t="s">
         <v>179</v>
       </c>
@@ -39691,7 +39691,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75">
+    <row r="11" spans="1:26" ht="15.6">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -39706,7 +39706,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75">
+    <row r="12" spans="1:26" ht="15.6">
       <c r="A12" s="27"/>
       <c r="B12" s="24"/>
       <c r="C12" s="16" t="s">
@@ -39727,7 +39727,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="31.5">
+    <row r="13" spans="1:26" ht="31.2">
       <c r="A13" s="27"/>
       <c r="B13" s="24"/>
       <c r="C13" s="16" t="s">
@@ -39746,7 +39746,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75">
+    <row r="14" spans="1:26" ht="15.6">
       <c r="A14" s="27"/>
       <c r="B14" s="24"/>
       <c r="C14" s="16" t="s">
@@ -39765,7 +39765,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="31.5">
+    <row r="15" spans="1:26" ht="15.6">
       <c r="A15" s="27"/>
       <c r="B15" s="24"/>
       <c r="C15" s="16" t="s">
@@ -39784,7 +39784,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="31.5">
+    <row r="16" spans="1:26" ht="31.2">
       <c r="A16" s="27"/>
       <c r="B16" s="24"/>
       <c r="C16" s="16" t="s">
@@ -39803,7 +39803,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="27"/>
       <c r="B17" s="24"/>
       <c r="C17" s="16" t="s">
@@ -39822,7 +39822,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="27"/>
       <c r="B18" s="24"/>
       <c r="C18" s="16" t="s">
@@ -39841,7 +39841,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="27"/>
       <c r="B19" s="24"/>
       <c r="C19" s="16"/>
@@ -39856,7 +39856,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="27"/>
       <c r="B20" s="24"/>
       <c r="C20" s="16"/>
@@ -39871,7 +39871,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="27"/>
       <c r="B21" s="24"/>
       <c r="C21" s="16"/>
@@ -39886,7 +39886,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="27"/>
       <c r="B22" s="24"/>
       <c r="C22" s="16"/>
@@ -39901,7 +39901,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="27"/>
       <c r="B23" s="24"/>
       <c r="C23" s="16" t="s">
@@ -39920,7 +39920,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="27"/>
       <c r="B24" s="24"/>
       <c r="C24" s="16"/>
@@ -39935,7 +39935,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15.6">
       <c r="A25" s="27"/>
       <c r="B25" s="24"/>
       <c r="C25" s="16"/>
@@ -39950,7 +39950,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75">
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="27"/>
       <c r="B26" s="24"/>
       <c r="C26" s="16"/>
@@ -39965,7 +39965,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="27"/>
       <c r="B27" s="24"/>
       <c r="C27" s="16"/>
@@ -39980,7 +39980,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="27"/>
       <c r="B28" s="24"/>
       <c r="C28" s="16" t="s">
@@ -39999,7 +39999,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="27"/>
       <c r="B29" s="24"/>
       <c r="C29" s="16"/>
@@ -40014,7 +40014,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="27"/>
       <c r="B30" s="24"/>
       <c r="C30" s="16"/>
@@ -40029,7 +40029,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="27"/>
       <c r="B31" s="24"/>
       <c r="C31" s="16"/>
@@ -40044,7 +40044,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="A32" s="27"/>
       <c r="B32" s="24"/>
       <c r="C32" s="16"/>
@@ -40059,7 +40059,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="27"/>
       <c r="B33" s="24"/>
       <c r="C33" s="16" t="s">
@@ -40078,7 +40078,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="27"/>
       <c r="B34" s="24"/>
       <c r="C34" s="16"/>
@@ -40093,7 +40093,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="27"/>
       <c r="B35" s="24"/>
       <c r="C35" s="16"/>
@@ -40108,7 +40108,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75">
+    <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="27"/>
       <c r="B36" s="24"/>
       <c r="C36" s="16"/>
@@ -40123,7 +40123,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="27"/>
       <c r="B37" s="24"/>
       <c r="C37" s="16"/>
@@ -40138,7 +40138,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
     </row>
-    <row r="38" spans="1:9" ht="31.5">
+    <row r="38" spans="1:9" ht="31.2">
       <c r="A38" s="27"/>
       <c r="B38" s="24"/>
       <c r="C38" s="16" t="s">
@@ -40157,7 +40157,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75">
+    <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="27"/>
       <c r="B39" s="24"/>
       <c r="C39" s="16"/>
@@ -40172,7 +40172,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="27"/>
       <c r="B40" s="24"/>
       <c r="C40" s="16"/>
@@ -40187,7 +40187,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="27"/>
       <c r="B41" s="24"/>
       <c r="C41" s="16"/>
@@ -40202,7 +40202,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75">
+    <row r="42" spans="1:9" ht="15.6">
       <c r="A42" s="27"/>
       <c r="B42" s="24"/>
       <c r="C42" s="16"/>
@@ -40232,7 +40232,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="27"/>
       <c r="B44" s="24"/>
       <c r="C44" s="16" t="s">
@@ -40251,7 +40251,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="31.5">
+    <row r="45" spans="1:9" ht="31.2">
       <c r="A45" s="27"/>
       <c r="B45" s="24"/>
       <c r="C45" s="16" t="s">
@@ -40272,7 +40272,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75">
+    <row r="46" spans="1:9" ht="15.6">
       <c r="A46" s="27"/>
       <c r="B46" s="24"/>
       <c r="C46" s="16" t="s">
@@ -40291,7 +40291,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75">
+    <row r="47" spans="1:9" ht="15.6">
       <c r="A47" s="47"/>
       <c r="B47" s="28"/>
       <c r="C47" s="41" t="s">
@@ -40314,7 +40314,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75">
+    <row r="48" spans="1:9" ht="15.6">
       <c r="A48" s="47"/>
       <c r="B48" s="28"/>
       <c r="C48" s="41"/>
@@ -40325,7 +40325,7 @@
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75">
+    <row r="49" spans="1:9" ht="15.6">
       <c r="A49" s="47"/>
       <c r="B49" s="28"/>
       <c r="C49" s="41"/>
@@ -40340,7 +40340,7 @@
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75">
+    <row r="50" spans="1:9" ht="15.6">
       <c r="A50" s="47"/>
       <c r="B50" s="28"/>
       <c r="C50" s="41"/>
@@ -40355,7 +40355,7 @@
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75">
+    <row r="51" spans="1:9" ht="15.6">
       <c r="A51" s="47"/>
       <c r="B51" s="28"/>
       <c r="C51" s="41"/>
@@ -40370,7 +40370,7 @@
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75">
+    <row r="52" spans="1:9" ht="15.6">
       <c r="A52" s="27"/>
       <c r="B52" s="24"/>
       <c r="C52" s="16" t="s">
@@ -40389,7 +40389,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75">
+    <row r="53" spans="1:9" ht="15.6">
       <c r="A53" s="27"/>
       <c r="B53" s="24"/>
       <c r="C53" s="16"/>
@@ -40404,7 +40404,7 @@
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75">
+    <row r="54" spans="1:9" ht="15.6">
       <c r="A54" s="27"/>
       <c r="B54" s="24"/>
       <c r="C54" s="16"/>
@@ -40419,7 +40419,7 @@
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75">
+    <row r="55" spans="1:9" ht="15.6">
       <c r="A55" s="27"/>
       <c r="B55" s="24"/>
       <c r="C55" s="16"/>
@@ -40434,7 +40434,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="27"/>
       <c r="B56" s="24"/>
       <c r="C56" s="16"/>
@@ -40449,7 +40449,7 @@
       <c r="H56" s="24"/>
       <c r="I56" s="24"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75">
+    <row r="57" spans="1:9" ht="15.6">
       <c r="A57" s="27"/>
       <c r="B57" s="24"/>
       <c r="C57" s="16" t="s">
@@ -40468,7 +40468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75">
+    <row r="58" spans="1:9" ht="15.6">
       <c r="A58" s="27"/>
       <c r="B58" s="24"/>
       <c r="C58" s="16"/>
@@ -40483,7 +40483,7 @@
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75">
+    <row r="59" spans="1:9" ht="15.6">
       <c r="A59" s="27"/>
       <c r="B59" s="24"/>
       <c r="C59" s="16"/>
@@ -40498,7 +40498,7 @@
       <c r="H59" s="24"/>
       <c r="I59" s="24"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75">
+    <row r="60" spans="1:9" ht="15.6">
       <c r="A60" s="27"/>
       <c r="B60" s="24"/>
       <c r="C60" s="16"/>
@@ -40513,7 +40513,7 @@
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75">
+    <row r="61" spans="1:9" ht="15.6">
       <c r="A61" s="27"/>
       <c r="B61" s="24"/>
       <c r="C61" s="16"/>
@@ -40528,7 +40528,7 @@
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75">
+    <row r="62" spans="1:9" ht="15.6">
       <c r="A62" s="27"/>
       <c r="B62" s="24"/>
       <c r="C62" s="16" t="s">
